--- a/grocery_app/01_scripts/recipebookV4.xlsx
+++ b/grocery_app/01_scripts/recipebookV4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clewis\IdeaProjects\Other\grocery_app\01_scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5CD911-60B8-4D76-9EEC-7EC40EE8BE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8AED9D-B61D-433E-82F0-2BA065E512C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="190">
   <si>
     <t>Recipe_Title</t>
   </si>
@@ -548,24 +548,6 @@
   </si>
   <si>
     <t>NA</t>
-  </si>
-  <si>
-    <t>Simply Korean; p 179</t>
-  </si>
-  <si>
-    <t>Simply Korean; p 180</t>
-  </si>
-  <si>
-    <t>Simply Korean; p 181</t>
-  </si>
-  <si>
-    <t>Simply Korean; p 182</t>
-  </si>
-  <si>
-    <t>Simply Korean; p 183</t>
-  </si>
-  <si>
-    <t>Simply Korean; p 184</t>
   </si>
   <si>
     <t>Japanese Home Cooking; improvised</t>
@@ -1025,7 +1007,7 @@
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1041,27 +1023,27 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -1268,7 +1250,7 @@
         <v>171</v>
       </c>
       <c r="G14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -1291,7 +1273,7 @@
         <v>171</v>
       </c>
       <c r="G15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -1314,7 +1296,7 @@
         <v>171</v>
       </c>
       <c r="G16" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -1337,7 +1319,7 @@
         <v>171</v>
       </c>
       <c r="G17" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -1360,7 +1342,7 @@
         <v>171</v>
       </c>
       <c r="G18" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -1383,7 +1365,7 @@
         <v>171</v>
       </c>
       <c r="G19" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -1403,10 +1385,10 @@
         <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G20" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -1426,10 +1408,10 @@
         <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G21" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -1449,10 +1431,10 @@
         <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G22" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -1472,10 +1454,10 @@
         <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G23" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -1495,15 +1477,15 @@
         <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G24" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B25" t="s">
         <v>86</v>
@@ -1521,12 +1503,12 @@
         <v>171</v>
       </c>
       <c r="G25" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B26" t="s">
         <v>62</v>
@@ -1544,12 +1526,12 @@
         <v>171</v>
       </c>
       <c r="G26" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B27" t="s">
         <v>89</v>
@@ -1567,12 +1549,12 @@
         <v>171</v>
       </c>
       <c r="G27" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B28" t="s">
         <v>97</v>
@@ -1590,12 +1572,12 @@
         <v>171</v>
       </c>
       <c r="G28" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
@@ -1613,15 +1595,15 @@
         <v>171</v>
       </c>
       <c r="G29" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B30" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -1636,15 +1618,15 @@
         <v>171</v>
       </c>
       <c r="G30" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B31" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1659,12 +1641,12 @@
         <v>171</v>
       </c>
       <c r="G31" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B32" t="s">
         <v>90</v>
@@ -1682,12 +1664,12 @@
         <v>171</v>
       </c>
       <c r="G32" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B33" t="s">
         <v>123</v>
@@ -1705,12 +1687,12 @@
         <v>171</v>
       </c>
       <c r="G33" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B34" t="s">
         <v>84</v>
@@ -1729,15 +1711,15 @@
         <v>171</v>
       </c>
       <c r="G34" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B35" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C35">
         <f>453*2</f>
@@ -1753,12 +1735,12 @@
         <v>171</v>
       </c>
       <c r="G35" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B36" t="s">
         <v>33</v>
@@ -1776,12 +1758,12 @@
         <v>171</v>
       </c>
       <c r="G36" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
@@ -1799,12 +1781,12 @@
         <v>171</v>
       </c>
       <c r="G37" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B38" t="s">
         <v>28</v>
@@ -1822,15 +1804,15 @@
         <v>171</v>
       </c>
       <c r="G38" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B39" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -1845,12 +1827,12 @@
         <v>171</v>
       </c>
       <c r="G39" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B40" t="s">
         <v>57</v>
@@ -1868,12 +1850,12 @@
         <v>171</v>
       </c>
       <c r="G40" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B41" t="s">
         <v>162</v>
@@ -1891,12 +1873,12 @@
         <v>171</v>
       </c>
       <c r="G41" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B42" t="s">
         <v>88</v>
@@ -1914,12 +1896,12 @@
         <v>171</v>
       </c>
       <c r="G42" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B43" t="s">
         <v>70</v>
@@ -1937,15 +1919,15 @@
         <v>171</v>
       </c>
       <c r="G43" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B44" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1960,15 +1942,15 @@
         <v>171</v>
       </c>
       <c r="G44" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B45" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C45">
         <v>453</v>
@@ -1983,12 +1965,12 @@
         <v>171</v>
       </c>
       <c r="G45" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B46" t="s">
         <v>169</v>
@@ -2006,12 +1988,12 @@
         <v>171</v>
       </c>
       <c r="G46" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B47" t="s">
         <v>17</v>
@@ -2029,12 +2011,12 @@
         <v>171</v>
       </c>
       <c r="G47" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B48" t="s">
         <v>44</v>
@@ -2052,12 +2034,12 @@
         <v>171</v>
       </c>
       <c r="G48" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B49" t="s">
         <v>30</v>
@@ -2075,12 +2057,12 @@
         <v>171</v>
       </c>
       <c r="G49" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B50" t="s">
         <v>50</v>
@@ -2098,12 +2080,12 @@
         <v>171</v>
       </c>
       <c r="G50" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B51" t="s">
         <v>38</v>
@@ -2121,12 +2103,12 @@
         <v>171</v>
       </c>
       <c r="G51" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B52" t="s">
         <v>46</v>
@@ -2144,12 +2126,12 @@
         <v>171</v>
       </c>
       <c r="G52" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B53" t="s">
         <v>33</v>
@@ -2167,12 +2149,12 @@
         <v>171</v>
       </c>
       <c r="G53" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B54" t="s">
         <v>63</v>
@@ -2190,12 +2172,12 @@
         <v>171</v>
       </c>
       <c r="G54" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B55" t="s">
         <v>28</v>
@@ -2213,7 +2195,7 @@
         <v>171</v>
       </c>
       <c r="G55" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2898,7 +2880,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B60" t="s">
         <v>22</v>
@@ -3844,7 +3826,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B146" t="s">
         <v>22</v>
@@ -3855,7 +3837,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B147" t="s">
         <v>146</v>
@@ -3866,7 +3848,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B148" t="s">
         <v>16</v>
@@ -3877,7 +3859,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B149" t="s">
         <v>22</v>
@@ -3888,7 +3870,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B150" t="s">
         <v>146</v>
@@ -3899,7 +3881,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B151" t="s">
         <v>16</v>

--- a/grocery_app/01_scripts/recipebookV4.xlsx
+++ b/grocery_app/01_scripts/recipebookV4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clewis\IdeaProjects\Other\grocery_app\01_scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8AED9D-B61D-433E-82F0-2BA065E512C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58333A86-91FD-40B9-8006-5D87E3663D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="279">
   <si>
     <t>Recipe_Title</t>
   </si>
@@ -602,13 +602,280 @@
   </si>
   <si>
     <t xml:space="preserve"># Re-add sesame chicken recipe. </t>
+  </si>
+  <si>
+    <t>Bubblegum soup</t>
+  </si>
+  <si>
+    <t>Apo</t>
+  </si>
+  <si>
+    <t>handful</t>
+  </si>
+  <si>
+    <t>Carbonara pasta</t>
+  </si>
+  <si>
+    <t>https://www.bbcgoodfood.com/recipes/ultimate-spaghetti-carbonara-recipe</t>
+  </si>
+  <si>
+    <t>clove</t>
+  </si>
+  <si>
+    <t>Coffee Cake</t>
+  </si>
+  <si>
+    <t>dessert</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>Classic Home Desserts</t>
+  </si>
+  <si>
+    <t>Gumbo</t>
+  </si>
+  <si>
+    <t>https://www.vice.com/en/article/z489zy/chicken-and-andouille-sausage-gumbo</t>
+  </si>
+  <si>
+    <t>white rice</t>
+  </si>
+  <si>
+    <t>Pho</t>
+  </si>
+  <si>
+    <t>https://www.recipetineats.com/wprm_print/36097</t>
+  </si>
+  <si>
+    <t>Soon tofu</t>
+  </si>
+  <si>
+    <t>https://www.koreanbapsang.com/kimchi-soondubu-jjigae-soft-tofu-stew-kimchi/</t>
+  </si>
+  <si>
+    <t>cups</t>
+  </si>
+  <si>
+    <t>oz</t>
+  </si>
+  <si>
+    <t>ounces</t>
+  </si>
+  <si>
+    <t>Steamed Egg *MWL</t>
+  </si>
+  <si>
+    <t>https://www.madewithlau.com/recipes/steamed-egg</t>
+  </si>
+  <si>
+    <t>Teriyake Salmon</t>
+  </si>
+  <si>
+    <t>https://www.justonecookbook.com/teriyaki-salmon-recipe/</t>
+  </si>
+  <si>
+    <t>Tomato Egg noodle soup</t>
+  </si>
+  <si>
+    <t>lunch</t>
+  </si>
+  <si>
+    <t>Sammy's recipe</t>
+  </si>
+  <si>
+    <t>Yogurt Granola</t>
+  </si>
+  <si>
+    <t>breakfast</t>
+  </si>
+  <si>
+    <t>Christian's recipe</t>
+  </si>
+  <si>
+    <t>Buttermilk Pancakes *JOC</t>
+  </si>
+  <si>
+    <t>https://www.justonecookbook.com/buttermilk-pancakes/#wprm-recipe-container-59406</t>
+  </si>
+  <si>
+    <t>Chanko Nabe</t>
+  </si>
+  <si>
+    <t>https://www.justonecookbook.com/chanko-nabe-sumo-stew/#wprm-recipe-container-57971</t>
+  </si>
+  <si>
+    <t>ginger juice</t>
+  </si>
+  <si>
+    <t>Tbsp</t>
+  </si>
+  <si>
+    <t>white miso</t>
+  </si>
+  <si>
+    <t>ground chicken</t>
+  </si>
+  <si>
+    <t>corn starch</t>
+  </si>
+  <si>
+    <t>panko bread crumb</t>
+  </si>
+  <si>
+    <t>cod filet</t>
+  </si>
+  <si>
+    <t>pork belly</t>
+  </si>
+  <si>
+    <t>tofu (medium)</t>
+  </si>
+  <si>
+    <t>napa cabbage</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>shiitake mushroom</t>
+  </si>
+  <si>
+    <t>shortgrain rice</t>
+  </si>
+  <si>
+    <t>sesame miso hot pot</t>
+  </si>
+  <si>
+    <t>https://www.justonecookbook.com/sesame-miso-hot-pot/</t>
+  </si>
+  <si>
+    <t>Japanese mustard green</t>
+  </si>
+  <si>
+    <t>stalks</t>
+  </si>
+  <si>
+    <t>garlic chives</t>
+  </si>
+  <si>
+    <t>bunch</t>
+  </si>
+  <si>
+    <t>shimeji mushroom</t>
+  </si>
+  <si>
+    <t>package</t>
+  </si>
+  <si>
+    <t>maitake mushroom</t>
+  </si>
+  <si>
+    <t>aburrage (deep fried tofu pouch)</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>pork thinkly sliced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miso </t>
+  </si>
+  <si>
+    <t>Japanese chicken curry</t>
+  </si>
+  <si>
+    <t>https://www.justonecookbook.com/simple-chicken-curry/#wprm-recipe-container-59001</t>
+  </si>
+  <si>
+    <t>Yukon gold potato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apple </t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>ketchup</t>
+  </si>
+  <si>
+    <t>curry roux</t>
+  </si>
+  <si>
+    <t>Oyakodon</t>
+  </si>
+  <si>
+    <t>onion</t>
+  </si>
+  <si>
+    <t>https://www.justonecookbook.com/oyakodon/#wprm-recipe-container-60584</t>
+  </si>
+  <si>
+    <t>dashi</t>
+  </si>
+  <si>
+    <t>side</t>
+  </si>
+  <si>
+    <t>Bok Choy</t>
+  </si>
+  <si>
+    <t>Chinese Mustard Greens</t>
+  </si>
+  <si>
+    <t>chinese mustard greens</t>
+  </si>
+  <si>
+    <t>Stir-fry it</t>
+  </si>
+  <si>
+    <t>Chinese Broccoli</t>
+  </si>
+  <si>
+    <t>Cauliflour</t>
+  </si>
+  <si>
+    <t>chinese broccoli</t>
+  </si>
+  <si>
+    <t>Salad</t>
+  </si>
+  <si>
+    <t>Grilled Chicken Salad</t>
+  </si>
+  <si>
+    <t>cucumber</t>
+  </si>
+  <si>
+    <t>quinoa</t>
+  </si>
+  <si>
+    <t>Sammy's mind</t>
+  </si>
+  <si>
+    <t>Bean mix</t>
+  </si>
+  <si>
+    <t>broccoli</t>
+  </si>
+  <si>
+    <t>butter beans</t>
+  </si>
+  <si>
+    <t>chick peas</t>
+  </si>
+  <si>
+    <t>portobello mushroom</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -645,6 +912,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -688,10 +963,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -702,8 +978,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1004,21 +1282,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G235"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A216" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F224" sqref="F224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.1796875" customWidth="1"/>
+    <col min="2" max="2" width="30.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.1796875" customWidth="1"/>
     <col min="4" max="4" width="15.54296875" customWidth="1"/>
-    <col min="5" max="5" width="6.26953125" customWidth="1"/>
+    <col min="5" max="5" width="8.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.08984375" customWidth="1"/>
-    <col min="7" max="7" width="50.26953125" customWidth="1"/>
+    <col min="7" max="7" width="80.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -1382,7 +1660,7 @@
         <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>261</v>
       </c>
       <c r="F20" t="s">
         <v>173</v>
@@ -1405,7 +1683,7 @@
         <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>261</v>
       </c>
       <c r="F21" t="s">
         <v>173</v>
@@ -1428,7 +1706,7 @@
         <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>261</v>
       </c>
       <c r="F22" t="s">
         <v>173</v>
@@ -1451,7 +1729,7 @@
         <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>261</v>
       </c>
       <c r="F23" t="s">
         <v>173</v>
@@ -1474,7 +1752,7 @@
         <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>261</v>
       </c>
       <c r="F24" t="s">
         <v>173</v>
@@ -2198,10 +2476,3597 @@
         <v>181</v>
       </c>
     </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>190</v>
+      </c>
+      <c r="B56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>190</v>
+      </c>
+      <c r="B57" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>190</v>
+      </c>
+      <c r="B58" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58">
+        <v>4</v>
+      </c>
+      <c r="D58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>190</v>
+      </c>
+      <c r="B59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>192</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>190</v>
+      </c>
+      <c r="B60" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60">
+        <v>500</v>
+      </c>
+      <c r="D60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>190</v>
+      </c>
+      <c r="B61" t="s">
+        <v>26</v>
+      </c>
+      <c r="C61">
+        <v>453</v>
+      </c>
+      <c r="D61" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>190</v>
+      </c>
+      <c r="B62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>190</v>
+      </c>
+      <c r="B63" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>190</v>
+      </c>
+      <c r="B64" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>190</v>
+      </c>
+      <c r="B65" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>193</v>
+      </c>
+      <c r="B66" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66">
+        <v>50</v>
+      </c>
+      <c r="D66" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>193</v>
+      </c>
+      <c r="B67" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>193</v>
+      </c>
+      <c r="B68" t="s">
+        <v>33</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68" t="s">
+        <v>195</v>
+      </c>
+      <c r="E68" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>193</v>
+      </c>
+      <c r="B69" t="s">
+        <v>34</v>
+      </c>
+      <c r="C69">
+        <v>100</v>
+      </c>
+      <c r="D69" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" t="s">
+        <v>9</v>
+      </c>
+      <c r="G69" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>193</v>
+      </c>
+      <c r="B70" t="s">
+        <v>35</v>
+      </c>
+      <c r="C70">
+        <v>50</v>
+      </c>
+      <c r="D70" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>193</v>
+      </c>
+      <c r="B71" t="s">
+        <v>36</v>
+      </c>
+      <c r="C71">
+        <v>50</v>
+      </c>
+      <c r="D71" t="s">
+        <v>25</v>
+      </c>
+      <c r="E71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G71" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>193</v>
+      </c>
+      <c r="B72" t="s">
+        <v>37</v>
+      </c>
+      <c r="C72">
+        <v>350</v>
+      </c>
+      <c r="D72" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>196</v>
+      </c>
+      <c r="B73" t="s">
+        <v>38</v>
+      </c>
+      <c r="C73">
+        <v>390</v>
+      </c>
+      <c r="D73" t="s">
+        <v>25</v>
+      </c>
+      <c r="E73" t="s">
+        <v>197</v>
+      </c>
+      <c r="G73" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>196</v>
+      </c>
+      <c r="B74" t="s">
+        <v>46</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" t="s">
+        <v>197</v>
+      </c>
+      <c r="G74" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>196</v>
+      </c>
+      <c r="B75" t="s">
+        <v>40</v>
+      </c>
+      <c r="C75">
+        <v>275</v>
+      </c>
+      <c r="D75" t="s">
+        <v>25</v>
+      </c>
+      <c r="E75" t="s">
+        <v>197</v>
+      </c>
+      <c r="G75" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>196</v>
+      </c>
+      <c r="B76" t="s">
+        <v>31</v>
+      </c>
+      <c r="C76">
+        <v>170</v>
+      </c>
+      <c r="D76" t="s">
+        <v>25</v>
+      </c>
+      <c r="E76" t="s">
+        <v>197</v>
+      </c>
+      <c r="G76" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>196</v>
+      </c>
+      <c r="B77" t="s">
+        <v>32</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" t="s">
+        <v>197</v>
+      </c>
+      <c r="G77" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>196</v>
+      </c>
+      <c r="B78" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78">
+        <v>0.5</v>
+      </c>
+      <c r="D78" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" t="s">
+        <v>197</v>
+      </c>
+      <c r="G78" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>196</v>
+      </c>
+      <c r="B79" t="s">
+        <v>47</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>198</v>
+      </c>
+      <c r="E79" t="s">
+        <v>197</v>
+      </c>
+      <c r="G79" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>196</v>
+      </c>
+      <c r="B80" t="s">
+        <v>45</v>
+      </c>
+      <c r="C80">
+        <v>5</v>
+      </c>
+      <c r="D80" t="s">
+        <v>25</v>
+      </c>
+      <c r="E80" t="s">
+        <v>197</v>
+      </c>
+      <c r="G80" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>200</v>
+      </c>
+      <c r="B81" t="s">
+        <v>59</v>
+      </c>
+      <c r="C81">
+        <v>250</v>
+      </c>
+      <c r="D81" t="s">
+        <v>60</v>
+      </c>
+      <c r="E81" t="s">
+        <v>9</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>200</v>
+      </c>
+      <c r="B82" t="s">
+        <v>61</v>
+      </c>
+      <c r="C82">
+        <v>453</v>
+      </c>
+      <c r="D82" t="s">
+        <v>25</v>
+      </c>
+      <c r="E82" t="s">
+        <v>9</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>200</v>
+      </c>
+      <c r="B83" t="s">
+        <v>38</v>
+      </c>
+      <c r="C83">
+        <v>74</v>
+      </c>
+      <c r="D83" t="s">
+        <v>25</v>
+      </c>
+      <c r="E83" t="s">
+        <v>9</v>
+      </c>
+      <c r="G83" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>200</v>
+      </c>
+      <c r="B84" t="s">
+        <v>62</v>
+      </c>
+      <c r="C84">
+        <v>4</v>
+      </c>
+      <c r="D84" t="s">
+        <v>14</v>
+      </c>
+      <c r="E84" t="s">
+        <v>9</v>
+      </c>
+      <c r="G84" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>200</v>
+      </c>
+      <c r="B85" t="s">
+        <v>63</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85" t="s">
+        <v>9</v>
+      </c>
+      <c r="G85" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>200</v>
+      </c>
+      <c r="B86" t="s">
+        <v>64</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86" t="s">
+        <v>9</v>
+      </c>
+      <c r="G86" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>200</v>
+      </c>
+      <c r="B87" t="s">
+        <v>65</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" t="s">
+        <v>9</v>
+      </c>
+      <c r="G87" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>200</v>
+      </c>
+      <c r="B88" t="s">
+        <v>20</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+      <c r="D88" t="s">
+        <v>14</v>
+      </c>
+      <c r="E88" t="s">
+        <v>9</v>
+      </c>
+      <c r="G88" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>200</v>
+      </c>
+      <c r="B89" t="s">
+        <v>66</v>
+      </c>
+      <c r="C89">
+        <v>946</v>
+      </c>
+      <c r="D89" t="s">
+        <v>60</v>
+      </c>
+      <c r="E89" t="s">
+        <v>9</v>
+      </c>
+      <c r="G89" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>200</v>
+      </c>
+      <c r="B90" t="s">
+        <v>53</v>
+      </c>
+      <c r="C90">
+        <v>453</v>
+      </c>
+      <c r="D90" t="s">
+        <v>25</v>
+      </c>
+      <c r="E90" t="s">
+        <v>9</v>
+      </c>
+      <c r="G90" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>200</v>
+      </c>
+      <c r="B91" t="s">
+        <v>67</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" t="s">
+        <v>9</v>
+      </c>
+      <c r="G91" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>200</v>
+      </c>
+      <c r="B92" t="s">
+        <v>33</v>
+      </c>
+      <c r="C92">
+        <v>6</v>
+      </c>
+      <c r="D92" t="s">
+        <v>195</v>
+      </c>
+      <c r="E92" t="s">
+        <v>9</v>
+      </c>
+      <c r="G92" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>200</v>
+      </c>
+      <c r="B93" t="s">
+        <v>68</v>
+      </c>
+      <c r="C93">
+        <v>130</v>
+      </c>
+      <c r="D93" t="s">
+        <v>60</v>
+      </c>
+      <c r="E93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G93" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>200</v>
+      </c>
+      <c r="B94" t="s">
+        <v>69</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" t="s">
+        <v>9</v>
+      </c>
+      <c r="G94" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>200</v>
+      </c>
+      <c r="B95" t="s">
+        <v>70</v>
+      </c>
+      <c r="C95">
+        <v>6</v>
+      </c>
+      <c r="D95" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95" t="s">
+        <v>9</v>
+      </c>
+      <c r="G95" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>200</v>
+      </c>
+      <c r="B96" t="s">
+        <v>202</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>14</v>
+      </c>
+      <c r="E96" t="s">
+        <v>9</v>
+      </c>
+      <c r="G96" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>200</v>
+      </c>
+      <c r="B97" t="s">
+        <v>71</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" t="s">
+        <v>9</v>
+      </c>
+      <c r="G97" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>203</v>
+      </c>
+      <c r="B98" t="s">
+        <v>82</v>
+      </c>
+      <c r="C98">
+        <v>5</v>
+      </c>
+      <c r="D98" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" t="s">
+        <v>9</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>203</v>
+      </c>
+      <c r="B99" t="s">
+        <v>83</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" t="s">
+        <v>9</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>203</v>
+      </c>
+      <c r="B100" t="s">
+        <v>84</v>
+      </c>
+      <c r="C100">
+        <v>1500</v>
+      </c>
+      <c r="D100" t="s">
+        <v>25</v>
+      </c>
+      <c r="E100" t="s">
+        <v>9</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>203</v>
+      </c>
+      <c r="B101" t="s">
+        <v>85</v>
+      </c>
+      <c r="C101">
+        <v>60</v>
+      </c>
+      <c r="D101" t="s">
+        <v>25</v>
+      </c>
+      <c r="E101" t="s">
+        <v>9</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>203</v>
+      </c>
+      <c r="B102" t="s">
+        <v>86</v>
+      </c>
+      <c r="C102">
+        <v>3</v>
+      </c>
+      <c r="D102" t="s">
+        <v>14</v>
+      </c>
+      <c r="E102" t="s">
+        <v>9</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>203</v>
+      </c>
+      <c r="B103" t="s">
+        <v>88</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103" t="s">
+        <v>14</v>
+      </c>
+      <c r="E103" t="s">
+        <v>9</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>203</v>
+      </c>
+      <c r="B104" t="s">
+        <v>41</v>
+      </c>
+      <c r="C104">
+        <v>3</v>
+      </c>
+      <c r="D104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" t="s">
+        <v>9</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>203</v>
+      </c>
+      <c r="B105" t="s">
+        <v>89</v>
+      </c>
+      <c r="C105">
+        <v>3</v>
+      </c>
+      <c r="D105" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105" t="s">
+        <v>9</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>203</v>
+      </c>
+      <c r="B106" t="s">
+        <v>90</v>
+      </c>
+      <c r="C106">
+        <v>4.5</v>
+      </c>
+      <c r="D106" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" t="s">
+        <v>9</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>203</v>
+      </c>
+      <c r="B107" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107">
+        <v>40</v>
+      </c>
+      <c r="D107" t="s">
+        <v>60</v>
+      </c>
+      <c r="E107" t="s">
+        <v>9</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>203</v>
+      </c>
+      <c r="B108" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108">
+        <v>5</v>
+      </c>
+      <c r="D108" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" t="s">
+        <v>9</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>203</v>
+      </c>
+      <c r="B109" t="s">
+        <v>92</v>
+      </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
+      <c r="D109" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109" t="s">
+        <v>9</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>203</v>
+      </c>
+      <c r="B110" t="s">
+        <v>93</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110" t="s">
+        <v>14</v>
+      </c>
+      <c r="E110" t="s">
+        <v>9</v>
+      </c>
+      <c r="G110" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>203</v>
+      </c>
+      <c r="B111" t="s">
+        <v>94</v>
+      </c>
+      <c r="C111">
+        <v>1000</v>
+      </c>
+      <c r="D111" t="s">
+        <v>25</v>
+      </c>
+      <c r="E111" t="s">
+        <v>9</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>203</v>
+      </c>
+      <c r="B112" t="s">
+        <v>95</v>
+      </c>
+      <c r="C112">
+        <v>1000</v>
+      </c>
+      <c r="D112" t="s">
+        <v>25</v>
+      </c>
+      <c r="E112" t="s">
+        <v>9</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>203</v>
+      </c>
+      <c r="B113" t="s">
+        <v>96</v>
+      </c>
+      <c r="C113">
+        <v>3</v>
+      </c>
+      <c r="D113" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" t="s">
+        <v>9</v>
+      </c>
+      <c r="G113" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>203</v>
+      </c>
+      <c r="B114" t="s">
+        <v>97</v>
+      </c>
+      <c r="C114">
+        <v>10</v>
+      </c>
+      <c r="D114" t="s">
+        <v>14</v>
+      </c>
+      <c r="E114" t="s">
+        <v>9</v>
+      </c>
+      <c r="G114" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>203</v>
+      </c>
+      <c r="B115" t="s">
+        <v>57</v>
+      </c>
+      <c r="C115">
+        <v>6</v>
+      </c>
+      <c r="D115" t="s">
+        <v>8</v>
+      </c>
+      <c r="E115" t="s">
+        <v>9</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>203</v>
+      </c>
+      <c r="B116" t="s">
+        <v>71</v>
+      </c>
+      <c r="C116">
+        <v>2</v>
+      </c>
+      <c r="D116" t="s">
+        <v>14</v>
+      </c>
+      <c r="E116" t="s">
+        <v>9</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>205</v>
+      </c>
+      <c r="B117" t="s">
+        <v>110</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" t="s">
+        <v>198</v>
+      </c>
+      <c r="E117" t="s">
+        <v>9</v>
+      </c>
+      <c r="G117" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>205</v>
+      </c>
+      <c r="B118" t="s">
+        <v>32</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118" t="s">
+        <v>14</v>
+      </c>
+      <c r="E118" t="s">
+        <v>9</v>
+      </c>
+      <c r="G118" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>205</v>
+      </c>
+      <c r="B119" t="s">
+        <v>33</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119" t="s">
+        <v>195</v>
+      </c>
+      <c r="E119" t="s">
+        <v>9</v>
+      </c>
+      <c r="G119" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>205</v>
+      </c>
+      <c r="B120" t="s">
+        <v>105</v>
+      </c>
+      <c r="C120">
+        <v>3</v>
+      </c>
+      <c r="D120" t="s">
+        <v>8</v>
+      </c>
+      <c r="E120" t="s">
+        <v>9</v>
+      </c>
+      <c r="G120" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>205</v>
+      </c>
+      <c r="B121" t="s">
+        <v>111</v>
+      </c>
+      <c r="C121">
+        <v>0.3</v>
+      </c>
+      <c r="D121" t="s">
+        <v>207</v>
+      </c>
+      <c r="E121" t="s">
+        <v>9</v>
+      </c>
+      <c r="G121" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>205</v>
+      </c>
+      <c r="B122" t="s">
+        <v>112</v>
+      </c>
+      <c r="C122">
+        <v>3</v>
+      </c>
+      <c r="D122" t="s">
+        <v>208</v>
+      </c>
+      <c r="E122" t="s">
+        <v>9</v>
+      </c>
+      <c r="G122" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>205</v>
+      </c>
+      <c r="B123" t="s">
+        <v>113</v>
+      </c>
+      <c r="C123">
+        <v>0.5</v>
+      </c>
+      <c r="D123" t="s">
+        <v>8</v>
+      </c>
+      <c r="E123" t="s">
+        <v>9</v>
+      </c>
+      <c r="G123" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>205</v>
+      </c>
+      <c r="B124" t="s">
+        <v>70</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124" t="s">
+        <v>14</v>
+      </c>
+      <c r="E124" t="s">
+        <v>9</v>
+      </c>
+      <c r="G124" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>205</v>
+      </c>
+      <c r="B125" t="s">
+        <v>17</v>
+      </c>
+      <c r="C125">
+        <v>3</v>
+      </c>
+      <c r="D125" t="s">
+        <v>8</v>
+      </c>
+      <c r="E125" t="s">
+        <v>9</v>
+      </c>
+      <c r="G125" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>205</v>
+      </c>
+      <c r="B126" t="s">
+        <v>114</v>
+      </c>
+      <c r="C126">
+        <v>12</v>
+      </c>
+      <c r="D126" t="s">
+        <v>209</v>
+      </c>
+      <c r="E126" t="s">
+        <v>9</v>
+      </c>
+      <c r="G126" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>210</v>
+      </c>
+      <c r="B127" t="s">
+        <v>115</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127" t="s">
+        <v>8</v>
+      </c>
+      <c r="E127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G127" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>210</v>
+      </c>
+      <c r="B128" t="s">
+        <v>48</v>
+      </c>
+      <c r="C128">
+        <v>0.5</v>
+      </c>
+      <c r="D128" t="s">
+        <v>8</v>
+      </c>
+      <c r="E128" t="s">
+        <v>9</v>
+      </c>
+      <c r="G128" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>210</v>
+      </c>
+      <c r="B129" t="s">
+        <v>32</v>
+      </c>
+      <c r="C129">
+        <v>4</v>
+      </c>
+      <c r="D129" t="s">
+        <v>14</v>
+      </c>
+      <c r="E129" t="s">
+        <v>9</v>
+      </c>
+      <c r="G129" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>210</v>
+      </c>
+      <c r="B130" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130">
+        <v>2</v>
+      </c>
+      <c r="D130" t="s">
+        <v>14</v>
+      </c>
+      <c r="E130" t="s">
+        <v>9</v>
+      </c>
+      <c r="G130" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>210</v>
+      </c>
+      <c r="B131" t="s">
+        <v>15</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131" t="s">
+        <v>8</v>
+      </c>
+      <c r="E131" t="s">
+        <v>9</v>
+      </c>
+      <c r="G131" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>210</v>
+      </c>
+      <c r="B132" t="s">
+        <v>30</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132" t="s">
+        <v>14</v>
+      </c>
+      <c r="E132" t="s">
+        <v>9</v>
+      </c>
+      <c r="G132" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>212</v>
+      </c>
+      <c r="B133" t="s">
+        <v>38</v>
+      </c>
+      <c r="C133">
+        <v>100</v>
+      </c>
+      <c r="D133" t="s">
+        <v>25</v>
+      </c>
+      <c r="E133" t="s">
+        <v>9</v>
+      </c>
+      <c r="G133" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>212</v>
+      </c>
+      <c r="B134" t="s">
+        <v>31</v>
+      </c>
+      <c r="C134">
+        <v>50</v>
+      </c>
+      <c r="D134" t="s">
+        <v>25</v>
+      </c>
+      <c r="E134" t="s">
+        <v>9</v>
+      </c>
+      <c r="G134" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>212</v>
+      </c>
+      <c r="B135" t="s">
+        <v>115</v>
+      </c>
+      <c r="C135">
+        <v>3</v>
+      </c>
+      <c r="D135" t="s">
+        <v>8</v>
+      </c>
+      <c r="E135" t="s">
+        <v>9</v>
+      </c>
+      <c r="G135" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>212</v>
+      </c>
+      <c r="B136" t="s">
+        <v>124</v>
+      </c>
+      <c r="C136">
+        <v>0.125</v>
+      </c>
+      <c r="D136" t="s">
+        <v>8</v>
+      </c>
+      <c r="E136" t="s">
+        <v>9</v>
+      </c>
+      <c r="G136" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>212</v>
+      </c>
+      <c r="B137" t="s">
+        <v>79</v>
+      </c>
+      <c r="C137">
+        <v>3</v>
+      </c>
+      <c r="D137" t="s">
+        <v>8</v>
+      </c>
+      <c r="E137" t="s">
+        <v>9</v>
+      </c>
+      <c r="G137" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>212</v>
+      </c>
+      <c r="B138" t="s">
+        <v>125</v>
+      </c>
+      <c r="C138">
+        <v>3</v>
+      </c>
+      <c r="D138" t="s">
+        <v>8</v>
+      </c>
+      <c r="E138" t="s">
+        <v>9</v>
+      </c>
+      <c r="G138" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>212</v>
+      </c>
+      <c r="B139" t="s">
+        <v>126</v>
+      </c>
+      <c r="C139">
+        <v>2</v>
+      </c>
+      <c r="D139" t="s">
+        <v>14</v>
+      </c>
+      <c r="E139" t="s">
+        <v>9</v>
+      </c>
+      <c r="G139" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>212</v>
+      </c>
+      <c r="B140" t="s">
+        <v>44</v>
+      </c>
+      <c r="C140">
+        <v>0.25</v>
+      </c>
+      <c r="D140" t="s">
+        <v>8</v>
+      </c>
+      <c r="E140" t="s">
+        <v>9</v>
+      </c>
+      <c r="G140" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>212</v>
+      </c>
+      <c r="B141" t="s">
+        <v>29</v>
+      </c>
+      <c r="C141">
+        <v>6</v>
+      </c>
+      <c r="D141" t="s">
+        <v>8</v>
+      </c>
+      <c r="E141" t="s">
+        <v>9</v>
+      </c>
+      <c r="G141" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>212</v>
+      </c>
+      <c r="B142" t="s">
+        <v>57</v>
+      </c>
+      <c r="C142">
+        <v>3</v>
+      </c>
+      <c r="D142" t="s">
+        <v>8</v>
+      </c>
+      <c r="E142" t="s">
+        <v>9</v>
+      </c>
+      <c r="G142" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>214</v>
+      </c>
+      <c r="B143" t="s">
+        <v>66</v>
+      </c>
+      <c r="C143">
+        <v>1000</v>
+      </c>
+      <c r="D143" t="s">
+        <v>60</v>
+      </c>
+      <c r="E143" t="s">
+        <v>215</v>
+      </c>
+      <c r="G143" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>214</v>
+      </c>
+      <c r="B144" t="s">
+        <v>128</v>
+      </c>
+      <c r="C144">
+        <v>100</v>
+      </c>
+      <c r="D144" t="s">
+        <v>25</v>
+      </c>
+      <c r="E144" t="s">
+        <v>215</v>
+      </c>
+      <c r="G144" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>214</v>
+      </c>
+      <c r="B145" t="s">
+        <v>88</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145" t="s">
+        <v>14</v>
+      </c>
+      <c r="E145" t="s">
+        <v>215</v>
+      </c>
+      <c r="G145" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>214</v>
+      </c>
+      <c r="B146" t="s">
+        <v>32</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146" t="s">
+        <v>14</v>
+      </c>
+      <c r="E146" t="s">
+        <v>215</v>
+      </c>
+      <c r="G146" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>214</v>
+      </c>
+      <c r="B147" t="s">
+        <v>13</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147" t="s">
+        <v>14</v>
+      </c>
+      <c r="E147" t="s">
+        <v>215</v>
+      </c>
+      <c r="G147" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>214</v>
+      </c>
+      <c r="B148" t="s">
+        <v>17</v>
+      </c>
+      <c r="C148">
+        <v>3</v>
+      </c>
+      <c r="D148" t="s">
+        <v>8</v>
+      </c>
+      <c r="E148" t="s">
+        <v>215</v>
+      </c>
+      <c r="G148" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>214</v>
+      </c>
+      <c r="B149" t="s">
+        <v>109</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149" t="s">
+        <v>14</v>
+      </c>
+      <c r="E149" t="s">
+        <v>215</v>
+      </c>
+      <c r="G149" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>217</v>
+      </c>
+      <c r="B150" t="s">
+        <v>129</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150" t="s">
+        <v>198</v>
+      </c>
+      <c r="E150" t="s">
+        <v>218</v>
+      </c>
+      <c r="G150" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>217</v>
+      </c>
+      <c r="B151" t="s">
+        <v>130</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151" t="s">
+        <v>198</v>
+      </c>
+      <c r="E151" t="s">
+        <v>218</v>
+      </c>
+      <c r="G151" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>220</v>
+      </c>
+      <c r="B152" t="s">
+        <v>38</v>
+      </c>
+      <c r="C152">
+        <v>150</v>
+      </c>
+      <c r="D152" t="s">
+        <v>25</v>
+      </c>
+      <c r="E152" t="s">
+        <v>218</v>
+      </c>
+      <c r="G152" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>220</v>
+      </c>
+      <c r="B153" t="s">
+        <v>46</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153" t="s">
+        <v>8</v>
+      </c>
+      <c r="E153" t="s">
+        <v>218</v>
+      </c>
+      <c r="G153" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>220</v>
+      </c>
+      <c r="B154" t="s">
+        <v>137</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154" t="s">
+        <v>8</v>
+      </c>
+      <c r="E154" t="s">
+        <v>218</v>
+      </c>
+      <c r="G154" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>220</v>
+      </c>
+      <c r="B155" t="s">
+        <v>32</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155" t="s">
+        <v>14</v>
+      </c>
+      <c r="E155" t="s">
+        <v>218</v>
+      </c>
+      <c r="G155" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>220</v>
+      </c>
+      <c r="B156" t="s">
+        <v>143</v>
+      </c>
+      <c r="C156">
+        <v>300</v>
+      </c>
+      <c r="D156" t="s">
+        <v>25</v>
+      </c>
+      <c r="E156" t="s">
+        <v>218</v>
+      </c>
+      <c r="G156" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>220</v>
+      </c>
+      <c r="B157" t="s">
+        <v>31</v>
+      </c>
+      <c r="C157">
+        <v>28</v>
+      </c>
+      <c r="D157" t="s">
+        <v>25</v>
+      </c>
+      <c r="E157" t="s">
+        <v>218</v>
+      </c>
+      <c r="G157" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>220</v>
+      </c>
+      <c r="B158" t="s">
+        <v>57</v>
+      </c>
+      <c r="C158">
+        <v>50</v>
+      </c>
+      <c r="D158" t="s">
+        <v>25</v>
+      </c>
+      <c r="E158" t="s">
+        <v>218</v>
+      </c>
+      <c r="G158" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>220</v>
+      </c>
+      <c r="B159" t="s">
+        <v>45</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159" t="s">
+        <v>8</v>
+      </c>
+      <c r="E159" t="s">
+        <v>218</v>
+      </c>
+      <c r="G159" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>220</v>
+      </c>
+      <c r="B160" t="s">
+        <v>144</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160" t="s">
+        <v>8</v>
+      </c>
+      <c r="E160" t="s">
+        <v>218</v>
+      </c>
+      <c r="G160" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>222</v>
+      </c>
+      <c r="B161" t="s">
+        <v>66</v>
+      </c>
+      <c r="C161">
+        <v>1440</v>
+      </c>
+      <c r="D161" t="s">
+        <v>60</v>
+      </c>
+      <c r="E161" t="s">
+        <v>9</v>
+      </c>
+      <c r="G161" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>222</v>
+      </c>
+      <c r="B162" t="s">
+        <v>125</v>
+      </c>
+      <c r="C162">
+        <v>60</v>
+      </c>
+      <c r="D162" t="s">
+        <v>60</v>
+      </c>
+      <c r="E162" t="s">
+        <v>9</v>
+      </c>
+      <c r="G162" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>222</v>
+      </c>
+      <c r="B163" t="s">
+        <v>79</v>
+      </c>
+      <c r="C163">
+        <v>80</v>
+      </c>
+      <c r="D163" t="s">
+        <v>60</v>
+      </c>
+      <c r="E163" t="s">
+        <v>9</v>
+      </c>
+      <c r="G163" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>222</v>
+      </c>
+      <c r="B164" t="s">
+        <v>224</v>
+      </c>
+      <c r="C164">
+        <v>2</v>
+      </c>
+      <c r="D164" t="s">
+        <v>225</v>
+      </c>
+      <c r="E164" t="s">
+        <v>9</v>
+      </c>
+      <c r="G164" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>222</v>
+      </c>
+      <c r="B165" t="s">
+        <v>33</v>
+      </c>
+      <c r="C165">
+        <v>2</v>
+      </c>
+      <c r="D165" t="s">
+        <v>14</v>
+      </c>
+      <c r="E165" t="s">
+        <v>9</v>
+      </c>
+      <c r="G165" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>222</v>
+      </c>
+      <c r="B166" t="s">
+        <v>226</v>
+      </c>
+      <c r="C166">
+        <v>0.5</v>
+      </c>
+      <c r="D166" t="s">
+        <v>198</v>
+      </c>
+      <c r="E166" t="s">
+        <v>9</v>
+      </c>
+      <c r="G166" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>222</v>
+      </c>
+      <c r="B167" t="s">
+        <v>227</v>
+      </c>
+      <c r="C167">
+        <v>227</v>
+      </c>
+      <c r="D167" t="s">
+        <v>25</v>
+      </c>
+      <c r="E167" t="s">
+        <v>9</v>
+      </c>
+      <c r="G167" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>222</v>
+      </c>
+      <c r="B168" t="s">
+        <v>29</v>
+      </c>
+      <c r="C168">
+        <v>2</v>
+      </c>
+      <c r="D168" t="s">
+        <v>8</v>
+      </c>
+      <c r="E168" t="s">
+        <v>9</v>
+      </c>
+      <c r="G168" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>222</v>
+      </c>
+      <c r="B169" t="s">
+        <v>228</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+      <c r="D169" t="s">
+        <v>225</v>
+      </c>
+      <c r="E169" t="s">
+        <v>9</v>
+      </c>
+      <c r="G169" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>222</v>
+      </c>
+      <c r="B170" t="s">
+        <v>229</v>
+      </c>
+      <c r="C170">
+        <v>6</v>
+      </c>
+      <c r="D170" t="s">
+        <v>225</v>
+      </c>
+      <c r="E170" t="s">
+        <v>9</v>
+      </c>
+      <c r="G170" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>222</v>
+      </c>
+      <c r="B171" t="s">
+        <v>13</v>
+      </c>
+      <c r="C171">
+        <v>3</v>
+      </c>
+      <c r="D171" t="s">
+        <v>225</v>
+      </c>
+      <c r="E171" t="s">
+        <v>9</v>
+      </c>
+      <c r="G171" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>222</v>
+      </c>
+      <c r="B172" t="s">
+        <v>32</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172" t="s">
+        <v>14</v>
+      </c>
+      <c r="E172" t="s">
+        <v>9</v>
+      </c>
+      <c r="G172" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>222</v>
+      </c>
+      <c r="B173" t="s">
+        <v>230</v>
+      </c>
+      <c r="C173">
+        <v>680</v>
+      </c>
+      <c r="D173" t="s">
+        <v>25</v>
+      </c>
+      <c r="E173" t="s">
+        <v>9</v>
+      </c>
+      <c r="G173" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>222</v>
+      </c>
+      <c r="B174" t="s">
+        <v>56</v>
+      </c>
+      <c r="C174">
+        <v>8</v>
+      </c>
+      <c r="D174" t="s">
+        <v>14</v>
+      </c>
+      <c r="E174" t="s">
+        <v>9</v>
+      </c>
+      <c r="G174" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>222</v>
+      </c>
+      <c r="B175" t="s">
+        <v>231</v>
+      </c>
+      <c r="C175">
+        <v>170</v>
+      </c>
+      <c r="D175" t="s">
+        <v>25</v>
+      </c>
+      <c r="E175" t="s">
+        <v>9</v>
+      </c>
+      <c r="G175" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>222</v>
+      </c>
+      <c r="B176" t="s">
+        <v>53</v>
+      </c>
+      <c r="C176">
+        <v>4</v>
+      </c>
+      <c r="D176" t="s">
+        <v>14</v>
+      </c>
+      <c r="E176" t="s">
+        <v>9</v>
+      </c>
+      <c r="G176" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>222</v>
+      </c>
+      <c r="B177" t="s">
+        <v>232</v>
+      </c>
+      <c r="C177">
+        <v>397</v>
+      </c>
+      <c r="D177" t="s">
+        <v>25</v>
+      </c>
+      <c r="E177" t="s">
+        <v>9</v>
+      </c>
+      <c r="G177" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>222</v>
+      </c>
+      <c r="B178" t="s">
+        <v>233</v>
+      </c>
+      <c r="C178">
+        <v>0.5</v>
+      </c>
+      <c r="D178" t="s">
+        <v>234</v>
+      </c>
+      <c r="E178" t="s">
+        <v>9</v>
+      </c>
+      <c r="G178" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>222</v>
+      </c>
+      <c r="B179" t="s">
+        <v>13</v>
+      </c>
+      <c r="C179">
+        <v>2</v>
+      </c>
+      <c r="D179" t="s">
+        <v>14</v>
+      </c>
+      <c r="E179" t="s">
+        <v>9</v>
+      </c>
+      <c r="G179" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>222</v>
+      </c>
+      <c r="B180" t="s">
+        <v>235</v>
+      </c>
+      <c r="C180">
+        <v>6</v>
+      </c>
+      <c r="E180" t="s">
+        <v>9</v>
+      </c>
+      <c r="G180" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>222</v>
+      </c>
+      <c r="B181" t="s">
+        <v>236</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+      <c r="D181" t="s">
+        <v>14</v>
+      </c>
+      <c r="E181" t="s">
+        <v>9</v>
+      </c>
+      <c r="G181" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>237</v>
+      </c>
+      <c r="B182" t="s">
+        <v>19</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+      <c r="D182" t="s">
+        <v>14</v>
+      </c>
+      <c r="E182" t="s">
+        <v>9</v>
+      </c>
+      <c r="G182" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>237</v>
+      </c>
+      <c r="B183" t="s">
+        <v>233</v>
+      </c>
+      <c r="C183">
+        <v>0.5</v>
+      </c>
+      <c r="D183" t="s">
+        <v>234</v>
+      </c>
+      <c r="E183" t="s">
+        <v>9</v>
+      </c>
+      <c r="G183" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>237</v>
+      </c>
+      <c r="B184" t="s">
+        <v>13</v>
+      </c>
+      <c r="C184">
+        <v>5</v>
+      </c>
+      <c r="D184" t="s">
+        <v>14</v>
+      </c>
+      <c r="E184" t="s">
+        <v>9</v>
+      </c>
+      <c r="G184" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>237</v>
+      </c>
+      <c r="B185" t="s">
+        <v>239</v>
+      </c>
+      <c r="C185">
+        <v>6</v>
+      </c>
+      <c r="D185" t="s">
+        <v>240</v>
+      </c>
+      <c r="E185" t="s">
+        <v>9</v>
+      </c>
+      <c r="G185" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>237</v>
+      </c>
+      <c r="B186" t="s">
+        <v>241</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+      <c r="D186" t="s">
+        <v>242</v>
+      </c>
+      <c r="E186" t="s">
+        <v>9</v>
+      </c>
+      <c r="G186" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>237</v>
+      </c>
+      <c r="B187" t="s">
+        <v>243</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+      <c r="D187" t="s">
+        <v>244</v>
+      </c>
+      <c r="E187" t="s">
+        <v>9</v>
+      </c>
+      <c r="G187" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>237</v>
+      </c>
+      <c r="B188" t="s">
+        <v>245</v>
+      </c>
+      <c r="C188">
+        <v>2</v>
+      </c>
+      <c r="D188" t="s">
+        <v>244</v>
+      </c>
+      <c r="E188" t="s">
+        <v>9</v>
+      </c>
+      <c r="G188" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>237</v>
+      </c>
+      <c r="B189" t="s">
+        <v>246</v>
+      </c>
+      <c r="C189">
+        <v>2</v>
+      </c>
+      <c r="D189" t="s">
+        <v>247</v>
+      </c>
+      <c r="E189" t="s">
+        <v>9</v>
+      </c>
+      <c r="G189" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>237</v>
+      </c>
+      <c r="B190" t="s">
+        <v>232</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+      <c r="D190" t="s">
+        <v>14</v>
+      </c>
+      <c r="E190" t="s">
+        <v>9</v>
+      </c>
+      <c r="G190" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>237</v>
+      </c>
+      <c r="B191" t="s">
+        <v>248</v>
+      </c>
+      <c r="C191">
+        <v>454</v>
+      </c>
+      <c r="D191" t="s">
+        <v>25</v>
+      </c>
+      <c r="E191" t="s">
+        <v>9</v>
+      </c>
+      <c r="G191" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>237</v>
+      </c>
+      <c r="B192" t="s">
+        <v>78</v>
+      </c>
+      <c r="C192">
+        <v>1</v>
+      </c>
+      <c r="D192" t="s">
+        <v>14</v>
+      </c>
+      <c r="E192" t="s">
+        <v>9</v>
+      </c>
+      <c r="G192" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>237</v>
+      </c>
+      <c r="B193" t="s">
+        <v>235</v>
+      </c>
+      <c r="C193">
+        <v>4</v>
+      </c>
+      <c r="D193" t="s">
+        <v>14</v>
+      </c>
+      <c r="E193" t="s">
+        <v>9</v>
+      </c>
+      <c r="G193" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>237</v>
+      </c>
+      <c r="B194" t="s">
+        <v>33</v>
+      </c>
+      <c r="C194">
+        <v>2</v>
+      </c>
+      <c r="D194" t="s">
+        <v>14</v>
+      </c>
+      <c r="E194" t="s">
+        <v>9</v>
+      </c>
+      <c r="G194" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>237</v>
+      </c>
+      <c r="B195" t="s">
+        <v>125</v>
+      </c>
+      <c r="C195">
+        <v>2</v>
+      </c>
+      <c r="D195" t="s">
+        <v>225</v>
+      </c>
+      <c r="E195" t="s">
+        <v>9</v>
+      </c>
+      <c r="G195" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>237</v>
+      </c>
+      <c r="B196" t="s">
+        <v>79</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="D196" t="s">
+        <v>225</v>
+      </c>
+      <c r="E196" t="s">
+        <v>9</v>
+      </c>
+      <c r="G196" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>237</v>
+      </c>
+      <c r="B197" t="s">
+        <v>249</v>
+      </c>
+      <c r="C197">
+        <v>6</v>
+      </c>
+      <c r="D197" t="s">
+        <v>225</v>
+      </c>
+      <c r="E197" t="s">
+        <v>9</v>
+      </c>
+      <c r="G197" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>250</v>
+      </c>
+      <c r="B198" t="s">
+        <v>53</v>
+      </c>
+      <c r="C198">
+        <v>680</v>
+      </c>
+      <c r="D198" t="s">
+        <v>25</v>
+      </c>
+      <c r="E198" t="s">
+        <v>9</v>
+      </c>
+      <c r="G198" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>250</v>
+      </c>
+      <c r="B199" t="s">
+        <v>19</v>
+      </c>
+      <c r="C199">
+        <v>2</v>
+      </c>
+      <c r="D199" t="s">
+        <v>14</v>
+      </c>
+      <c r="E199" t="s">
+        <v>9</v>
+      </c>
+      <c r="G199" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>250</v>
+      </c>
+      <c r="B200" t="s">
+        <v>71</v>
+      </c>
+      <c r="C200">
+        <v>2</v>
+      </c>
+      <c r="D200" t="s">
+        <v>14</v>
+      </c>
+      <c r="E200" t="s">
+        <v>9</v>
+      </c>
+      <c r="G200" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>250</v>
+      </c>
+      <c r="B201" t="s">
+        <v>252</v>
+      </c>
+      <c r="C201">
+        <v>3</v>
+      </c>
+      <c r="D201" t="s">
+        <v>14</v>
+      </c>
+      <c r="E201" t="s">
+        <v>9</v>
+      </c>
+      <c r="G201" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>250</v>
+      </c>
+      <c r="B202" t="s">
+        <v>11</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+      <c r="D202" t="s">
+        <v>14</v>
+      </c>
+      <c r="E202" t="s">
+        <v>9</v>
+      </c>
+      <c r="G202" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>250</v>
+      </c>
+      <c r="B203" t="s">
+        <v>33</v>
+      </c>
+      <c r="C203">
+        <v>2</v>
+      </c>
+      <c r="D203" t="s">
+        <v>14</v>
+      </c>
+      <c r="E203" t="s">
+        <v>9</v>
+      </c>
+      <c r="G203" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>250</v>
+      </c>
+      <c r="B204" t="s">
+        <v>253</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+      <c r="D204" t="s">
+        <v>14</v>
+      </c>
+      <c r="E204" t="s">
+        <v>9</v>
+      </c>
+      <c r="G204" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>250</v>
+      </c>
+      <c r="B205" t="s">
+        <v>66</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+      <c r="D205" t="s">
+        <v>254</v>
+      </c>
+      <c r="E205" t="s">
+        <v>9</v>
+      </c>
+      <c r="G205" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>250</v>
+      </c>
+      <c r="B206" t="s">
+        <v>184</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+      <c r="D206" t="s">
+        <v>225</v>
+      </c>
+      <c r="E206" t="s">
+        <v>9</v>
+      </c>
+      <c r="G206" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>250</v>
+      </c>
+      <c r="B207" t="s">
+        <v>29</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207" t="s">
+        <v>225</v>
+      </c>
+      <c r="E207" t="s">
+        <v>9</v>
+      </c>
+      <c r="G207" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>250</v>
+      </c>
+      <c r="B208" t="s">
+        <v>255</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="D208" t="s">
+        <v>225</v>
+      </c>
+      <c r="E208" t="s">
+        <v>9</v>
+      </c>
+      <c r="G208" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>250</v>
+      </c>
+      <c r="B209" t="s">
+        <v>256</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+      <c r="D209" t="s">
+        <v>244</v>
+      </c>
+      <c r="E209" t="s">
+        <v>9</v>
+      </c>
+      <c r="G209" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>257</v>
+      </c>
+      <c r="B210" t="s">
+        <v>258</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210" t="s">
+        <v>14</v>
+      </c>
+      <c r="E210" t="s">
+        <v>9</v>
+      </c>
+      <c r="G210" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>257</v>
+      </c>
+      <c r="B211" t="s">
+        <v>53</v>
+      </c>
+      <c r="C211">
+        <v>283</v>
+      </c>
+      <c r="D211" t="s">
+        <v>25</v>
+      </c>
+      <c r="E211" t="s">
+        <v>9</v>
+      </c>
+      <c r="G211" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>257</v>
+      </c>
+      <c r="B212" t="s">
+        <v>125</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212" t="s">
+        <v>225</v>
+      </c>
+      <c r="E212" t="s">
+        <v>9</v>
+      </c>
+      <c r="G212" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>257</v>
+      </c>
+      <c r="B213" t="s">
+        <v>32</v>
+      </c>
+      <c r="C213">
+        <v>4</v>
+      </c>
+      <c r="D213" t="s">
+        <v>14</v>
+      </c>
+      <c r="E213" t="s">
+        <v>9</v>
+      </c>
+      <c r="G213" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>257</v>
+      </c>
+      <c r="B214" t="s">
+        <v>260</v>
+      </c>
+      <c r="C214">
+        <v>120</v>
+      </c>
+      <c r="D214" t="s">
+        <v>60</v>
+      </c>
+      <c r="E214" t="s">
+        <v>9</v>
+      </c>
+      <c r="G214" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>257</v>
+      </c>
+      <c r="B215" t="s">
+        <v>79</v>
+      </c>
+      <c r="C215">
+        <v>2</v>
+      </c>
+      <c r="D215" t="s">
+        <v>225</v>
+      </c>
+      <c r="E215" t="s">
+        <v>9</v>
+      </c>
+      <c r="G215" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>257</v>
+      </c>
+      <c r="B216" t="s">
+        <v>57</v>
+      </c>
+      <c r="C216">
+        <v>2</v>
+      </c>
+      <c r="D216" t="s">
+        <v>225</v>
+      </c>
+      <c r="E216" t="s">
+        <v>9</v>
+      </c>
+      <c r="G216" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>257</v>
+      </c>
+      <c r="B217" t="s">
+        <v>132</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+      <c r="D217" t="s">
+        <v>14</v>
+      </c>
+      <c r="E217" t="s">
+        <v>9</v>
+      </c>
+      <c r="G217" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>262</v>
+      </c>
+      <c r="B218" t="s">
+        <v>52</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+      <c r="D218" t="s">
+        <v>14</v>
+      </c>
+      <c r="E218" t="s">
+        <v>261</v>
+      </c>
+      <c r="G218" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>263</v>
+      </c>
+      <c r="B219" t="s">
+        <v>264</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219" t="s">
+        <v>14</v>
+      </c>
+      <c r="E219" t="s">
+        <v>261</v>
+      </c>
+      <c r="G219" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>266</v>
+      </c>
+      <c r="B220" t="s">
+        <v>268</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+      <c r="D220" t="s">
+        <v>14</v>
+      </c>
+      <c r="E220" t="s">
+        <v>261</v>
+      </c>
+      <c r="G220" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>267</v>
+      </c>
+      <c r="B221" t="s">
+        <v>98</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
+      <c r="D221" t="s">
+        <v>14</v>
+      </c>
+      <c r="E221" t="s">
+        <v>261</v>
+      </c>
+      <c r="G221" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>269</v>
+      </c>
+      <c r="B222" t="s">
+        <v>136</v>
+      </c>
+      <c r="C222">
+        <v>1</v>
+      </c>
+      <c r="D222" t="s">
+        <v>14</v>
+      </c>
+      <c r="E222" t="s">
+        <v>261</v>
+      </c>
+      <c r="G222" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>269</v>
+      </c>
+      <c r="B223" t="s">
+        <v>71</v>
+      </c>
+      <c r="C223">
+        <v>1</v>
+      </c>
+      <c r="D223" t="s">
+        <v>14</v>
+      </c>
+      <c r="E223" t="s">
+        <v>261</v>
+      </c>
+      <c r="G223" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>270</v>
+      </c>
+      <c r="B224" t="s">
+        <v>99</v>
+      </c>
+      <c r="C224">
+        <v>453</v>
+      </c>
+      <c r="D224" t="s">
+        <v>25</v>
+      </c>
+      <c r="E224" t="s">
+        <v>215</v>
+      </c>
+      <c r="G224" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>270</v>
+      </c>
+      <c r="B225" t="s">
+        <v>101</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+      <c r="D225" t="s">
+        <v>14</v>
+      </c>
+      <c r="E225" t="s">
+        <v>215</v>
+      </c>
+      <c r="G225" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>270</v>
+      </c>
+      <c r="B226" t="s">
+        <v>271</v>
+      </c>
+      <c r="C226">
+        <v>1</v>
+      </c>
+      <c r="D226" t="s">
+        <v>14</v>
+      </c>
+      <c r="E226" t="s">
+        <v>215</v>
+      </c>
+      <c r="G226" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>270</v>
+      </c>
+      <c r="B227" t="s">
+        <v>272</v>
+      </c>
+      <c r="C227">
+        <v>1</v>
+      </c>
+      <c r="D227" t="s">
+        <v>14</v>
+      </c>
+      <c r="E227" t="s">
+        <v>215</v>
+      </c>
+      <c r="G227" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>274</v>
+      </c>
+      <c r="B228" t="s">
+        <v>98</v>
+      </c>
+      <c r="C228">
+        <v>1</v>
+      </c>
+      <c r="D228" t="s">
+        <v>14</v>
+      </c>
+      <c r="E228" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>274</v>
+      </c>
+      <c r="B229" t="s">
+        <v>275</v>
+      </c>
+      <c r="C229">
+        <v>1</v>
+      </c>
+      <c r="D229" t="s">
+        <v>14</v>
+      </c>
+      <c r="E229" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>274</v>
+      </c>
+      <c r="B230" t="s">
+        <v>276</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+      <c r="D230" t="s">
+        <v>14</v>
+      </c>
+      <c r="E230" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>274</v>
+      </c>
+      <c r="B231" t="s">
+        <v>277</v>
+      </c>
+      <c r="C231">
+        <v>1</v>
+      </c>
+      <c r="D231" t="s">
+        <v>14</v>
+      </c>
+      <c r="E231" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>274</v>
+      </c>
+      <c r="B232" t="s">
+        <v>33</v>
+      </c>
+      <c r="C232">
+        <v>1</v>
+      </c>
+      <c r="D232" t="s">
+        <v>14</v>
+      </c>
+      <c r="E232" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>274</v>
+      </c>
+      <c r="B233" t="s">
+        <v>71</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
+      </c>
+      <c r="D233" t="s">
+        <v>14</v>
+      </c>
+      <c r="E233" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>274</v>
+      </c>
+      <c r="B234" t="s">
+        <v>109</v>
+      </c>
+      <c r="C234">
+        <v>1</v>
+      </c>
+      <c r="D234" t="s">
+        <v>14</v>
+      </c>
+      <c r="E234" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
+        <v>274</v>
+      </c>
+      <c r="B235" t="s">
+        <v>278</v>
+      </c>
+      <c r="C235">
+        <v>1</v>
+      </c>
+      <c r="D235" t="s">
+        <v>14</v>
+      </c>
+      <c r="E235" t="s">
+        <v>215</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G66" r:id="rId1" xr:uid="{EC48791D-482F-4C2B-822C-0EFC02BD679B}"/>
+    <hyperlink ref="G81" r:id="rId2" xr:uid="{4E3AF72E-B499-43B9-A704-91F67014897F}"/>
+    <hyperlink ref="G82" r:id="rId3" xr:uid="{8DCFDC95-1BE3-429F-95F2-E142EA0B271D}"/>
+    <hyperlink ref="G98" r:id="rId4" xr:uid="{8738B12D-EE54-45AF-B868-00D6E7879641}"/>
+    <hyperlink ref="G99:G116" r:id="rId5" display="https://www.recipetineats.com/wprm_print/36097" xr:uid="{E51C05CC-D379-4458-B1AA-8DC7AC2235BB}"/>
+    <hyperlink ref="G117" r:id="rId6" xr:uid="{43715D84-1868-4A16-B4F9-9796D9BE3BC6}"/>
+    <hyperlink ref="G127" r:id="rId7" xr:uid="{67FA031A-421A-4305-B5B4-520CF24DF9BE}"/>
+    <hyperlink ref="G133" r:id="rId8" xr:uid="{406EFBE6-7646-4906-95E4-A28F579ADF2A}"/>
+    <hyperlink ref="G152" r:id="rId9" location="wprm-recipe-container-59406" xr:uid="{337BACCF-5448-4396-9E15-01795B3AEFD5}"/>
+    <hyperlink ref="G153:G160" r:id="rId10" location="wprm-recipe-container-59406" display="https://www.justonecookbook.com/buttermilk-pancakes/#wprm-recipe-container-59406" xr:uid="{25BDE316-CDC3-4680-A332-BF6EFE5C5231}"/>
+    <hyperlink ref="G182" r:id="rId11" xr:uid="{DC793941-06F6-4FDD-B446-EF46EE9D13DC}"/>
+    <hyperlink ref="G183:G197" r:id="rId12" display="https://www.justonecookbook.com/sesame-miso-hot-pot/" xr:uid="{E3FC1864-4012-4ACF-8CDB-322A8814B617}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
@@ -2231,11 +6096,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{311BBB4D-CC89-4B49-BBF9-8F43F47651E3}">
-  <dimension ref="A1:D151"/>
+  <dimension ref="A1:D159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C152" sqref="C152"/>
+      <pane ySplit="11" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A160" sqref="A160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2313,6 +6178,9 @@
       <c r="B6" t="s">
         <v>148</v>
       </c>
+      <c r="C6" t="s">
+        <v>198</v>
+      </c>
       <c r="D6" t="s">
         <v>158</v>
       </c>
@@ -3888,6 +7756,94 @@
       </c>
       <c r="C151" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>264</v>
+      </c>
+      <c r="B152" t="s">
+        <v>12</v>
+      </c>
+      <c r="C152" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>268</v>
+      </c>
+      <c r="B153" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>271</v>
+      </c>
+      <c r="B154" t="s">
+        <v>12</v>
+      </c>
+      <c r="C154" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>272</v>
+      </c>
+      <c r="B155" t="s">
+        <v>16</v>
+      </c>
+      <c r="C155" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>275</v>
+      </c>
+      <c r="B156" t="s">
+        <v>12</v>
+      </c>
+      <c r="C156" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>276</v>
+      </c>
+      <c r="B157" t="s">
+        <v>16</v>
+      </c>
+      <c r="C157" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>277</v>
+      </c>
+      <c r="B158" t="s">
+        <v>16</v>
+      </c>
+      <c r="C158" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>278</v>
+      </c>
+      <c r="B159" t="s">
+        <v>12</v>
+      </c>
+      <c r="C159" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/grocery_app/01_scripts/recipebookV4.xlsx
+++ b/grocery_app/01_scripts/recipebookV4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clewis\IdeaProjects\Other\grocery_app\01_scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58333A86-91FD-40B9-8006-5D87E3663D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD02AB43-5919-4F54-B963-9DD861819E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="292">
   <si>
     <t>Recipe_Title</t>
   </si>
@@ -523,9 +523,6 @@
     <t>daikon</t>
   </si>
   <si>
-    <t>Beef and Radish Soup</t>
-  </si>
-  <si>
     <t>dasida (korean beef stock powder)</t>
   </si>
   <si>
@@ -556,9 +553,6 @@
     <t>Chop Zuchinni, ginger, onion, tofu in advance</t>
   </si>
   <si>
-    <t>Hong Kong Beef Brisket in Clear Broth</t>
-  </si>
-  <si>
     <t>dried chinese licorice root</t>
   </si>
   <si>
@@ -580,9 +574,6 @@
     <t>Woks of Life; p 185</t>
   </si>
   <si>
-    <t>Salt and Pepper Pork Chops</t>
-  </si>
-  <si>
     <t>pork shoulder</t>
   </si>
   <si>
@@ -664,12 +655,6 @@
     <t>ounces</t>
   </si>
   <si>
-    <t>Steamed Egg *MWL</t>
-  </si>
-  <si>
-    <t>https://www.madewithlau.com/recipes/steamed-egg</t>
-  </si>
-  <si>
     <t>Teriyake Salmon</t>
   </si>
   <si>
@@ -869,6 +854,60 @@
   </si>
   <si>
     <t>portobello mushroom</t>
+  </si>
+  <si>
+    <t>Simply Korean; p 181</t>
+  </si>
+  <si>
+    <t>dried seaweed (wakame)</t>
+  </si>
+  <si>
+    <t>Simply Korean: Seaweed Soup</t>
+  </si>
+  <si>
+    <t>Simply Korean: Beef and Radish Soup</t>
+  </si>
+  <si>
+    <t>WOL: Hong Kong Beef Brisket in Clear Broth</t>
+  </si>
+  <si>
+    <t>WOL: Salt and Pepper Pork Chops</t>
+  </si>
+  <si>
+    <t>Simply Korean: Soybean Paste Stew</t>
+  </si>
+  <si>
+    <t>doenjang</t>
+  </si>
+  <si>
+    <t>Simply Korean; p185</t>
+  </si>
+  <si>
+    <t>Simply Korean: Vegetable Pancakes</t>
+  </si>
+  <si>
+    <t>yukon gold potato</t>
+  </si>
+  <si>
+    <t>chili pepper</t>
+  </si>
+  <si>
+    <t>Simply Korean; p216</t>
+  </si>
+  <si>
+    <t>Simply Korean: Twisted Donuts</t>
+  </si>
+  <si>
+    <t>instant yeast</t>
+  </si>
+  <si>
+    <t>Simply Korean; p245</t>
+  </si>
+  <si>
+    <t>Simply Korean: Steamed Egg!!!</t>
+  </si>
+  <si>
+    <t>Simply Korean; p46</t>
   </si>
 </sst>
 </file>
@@ -975,10 +1014,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1282,10 +1321,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G235"/>
+  <dimension ref="A1:G267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A216" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F224" sqref="F224"/>
+    <sheetView tabSelected="1" topLeftCell="A251" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C272" sqref="C272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1296,32 +1335,32 @@
     <col min="4" max="4" width="15.54296875" customWidth="1"/>
     <col min="5" max="5" width="8.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.08984375" customWidth="1"/>
-    <col min="7" max="7" width="80.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -1487,7 +1526,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>163</v>
+        <v>277</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -1502,15 +1541,15 @@
         <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>163</v>
+        <v>277</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -1525,15 +1564,15 @@
         <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>163</v>
+        <v>277</v>
       </c>
       <c r="B15" t="s">
         <v>162</v>
@@ -1548,15 +1587,15 @@
         <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>163</v>
+        <v>277</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1571,15 +1610,15 @@
         <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>163</v>
+        <v>277</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -1594,15 +1633,15 @@
         <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>163</v>
+        <v>277</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
@@ -1617,18 +1656,18 @@
         <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>277</v>
+      </c>
+      <c r="B19" t="s">
         <v>163</v>
-      </c>
-      <c r="B19" t="s">
-        <v>164</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -1640,18 +1679,18 @@
         <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1660,18 +1699,18 @@
         <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
@@ -1683,18 +1722,18 @@
         <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B22" t="s">
         <v>71</v>
@@ -1706,22 +1745,22 @@
         <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>165</v>
+      </c>
+      <c r="B23" t="s">
         <v>166</v>
       </c>
-      <c r="B23" t="s">
-        <v>167</v>
-      </c>
       <c r="C23">
         <v>1</v>
       </c>
@@ -1729,21 +1768,21 @@
         <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1752,18 +1791,18 @@
         <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>174</v>
+        <v>278</v>
       </c>
       <c r="B25" t="s">
         <v>86</v>
@@ -1778,15 +1817,15 @@
         <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>174</v>
+        <v>278</v>
       </c>
       <c r="B26" t="s">
         <v>62</v>
@@ -1801,15 +1840,15 @@
         <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G26" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>174</v>
+        <v>278</v>
       </c>
       <c r="B27" t="s">
         <v>89</v>
@@ -1824,15 +1863,15 @@
         <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G27" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>278</v>
       </c>
       <c r="B28" t="s">
         <v>97</v>
@@ -1847,15 +1886,15 @@
         <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G28" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>174</v>
+        <v>278</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
@@ -1870,18 +1909,18 @@
         <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G29" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>174</v>
+        <v>278</v>
       </c>
       <c r="B30" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -1893,19 +1932,19 @@
         <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G30" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>278</v>
+      </c>
+      <c r="B31" t="s">
         <v>174</v>
       </c>
-      <c r="B31" t="s">
-        <v>176</v>
-      </c>
       <c r="C31">
         <v>1</v>
       </c>
@@ -1916,15 +1955,15 @@
         <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>174</v>
+        <v>278</v>
       </c>
       <c r="B32" t="s">
         <v>90</v>
@@ -1939,15 +1978,15 @@
         <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G32" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>174</v>
+        <v>278</v>
       </c>
       <c r="B33" t="s">
         <v>123</v>
@@ -1962,15 +2001,15 @@
         <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G33" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>174</v>
+        <v>278</v>
       </c>
       <c r="B34" t="s">
         <v>84</v>
@@ -1986,18 +2025,18 @@
         <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G34" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>174</v>
+        <v>278</v>
       </c>
       <c r="B35" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C35">
         <f>453*2</f>
@@ -2010,15 +2049,15 @@
         <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G35" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>174</v>
+        <v>278</v>
       </c>
       <c r="B36" t="s">
         <v>33</v>
@@ -2033,15 +2072,15 @@
         <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G36" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>174</v>
+        <v>278</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
@@ -2056,15 +2095,15 @@
         <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G37" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>174</v>
+        <v>278</v>
       </c>
       <c r="B38" t="s">
         <v>28</v>
@@ -2079,18 +2118,18 @@
         <v>9</v>
       </c>
       <c r="F38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G38" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>174</v>
+        <v>278</v>
       </c>
       <c r="B39" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -2102,15 +2141,15 @@
         <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G39" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>174</v>
+        <v>278</v>
       </c>
       <c r="B40" t="s">
         <v>57</v>
@@ -2125,15 +2164,15 @@
         <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G40" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>174</v>
+        <v>278</v>
       </c>
       <c r="B41" t="s">
         <v>162</v>
@@ -2148,15 +2187,15 @@
         <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G41" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>174</v>
+        <v>278</v>
       </c>
       <c r="B42" t="s">
         <v>88</v>
@@ -2171,15 +2210,15 @@
         <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G42" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>174</v>
+        <v>278</v>
       </c>
       <c r="B43" t="s">
         <v>70</v>
@@ -2194,18 +2233,18 @@
         <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G43" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>174</v>
+        <v>278</v>
       </c>
       <c r="B44" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -2217,18 +2256,18 @@
         <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G44" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>182</v>
+        <v>279</v>
       </c>
       <c r="B45" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C45">
         <v>453</v>
@@ -2240,18 +2279,18 @@
         <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G45" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>182</v>
+        <v>279</v>
       </c>
       <c r="B46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -2263,15 +2302,15 @@
         <v>9</v>
       </c>
       <c r="F46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>182</v>
+        <v>279</v>
       </c>
       <c r="B47" t="s">
         <v>17</v>
@@ -2286,15 +2325,15 @@
         <v>9</v>
       </c>
       <c r="F47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G47" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>182</v>
+        <v>279</v>
       </c>
       <c r="B48" t="s">
         <v>44</v>
@@ -2309,15 +2348,15 @@
         <v>9</v>
       </c>
       <c r="F48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G48" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>182</v>
+        <v>279</v>
       </c>
       <c r="B49" t="s">
         <v>30</v>
@@ -2332,15 +2371,15 @@
         <v>9</v>
       </c>
       <c r="F49" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G49" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>182</v>
+        <v>279</v>
       </c>
       <c r="B50" t="s">
         <v>50</v>
@@ -2355,15 +2394,15 @@
         <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G50" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>182</v>
+        <v>279</v>
       </c>
       <c r="B51" t="s">
         <v>38</v>
@@ -2378,15 +2417,15 @@
         <v>9</v>
       </c>
       <c r="F51" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>182</v>
+        <v>279</v>
       </c>
       <c r="B52" t="s">
         <v>46</v>
@@ -2401,15 +2440,15 @@
         <v>9</v>
       </c>
       <c r="F52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G52" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>182</v>
+        <v>279</v>
       </c>
       <c r="B53" t="s">
         <v>33</v>
@@ -2424,15 +2463,15 @@
         <v>9</v>
       </c>
       <c r="F53" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G53" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>182</v>
+        <v>279</v>
       </c>
       <c r="B54" t="s">
         <v>63</v>
@@ -2447,15 +2486,15 @@
         <v>9</v>
       </c>
       <c r="F54" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G54" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>182</v>
+        <v>279</v>
       </c>
       <c r="B55" t="s">
         <v>28</v>
@@ -2470,15 +2509,15 @@
         <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G55" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B56" t="s">
         <v>19</v>
@@ -2493,12 +2532,12 @@
         <v>9</v>
       </c>
       <c r="G56" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B57" t="s">
         <v>20</v>
@@ -2513,12 +2552,12 @@
         <v>9</v>
       </c>
       <c r="G57" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B58" t="s">
         <v>21</v>
@@ -2533,12 +2572,12 @@
         <v>9</v>
       </c>
       <c r="G58" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B59" t="s">
         <v>23</v>
@@ -2547,18 +2586,18 @@
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E59" t="s">
         <v>9</v>
       </c>
       <c r="G59" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B60" t="s">
         <v>24</v>
@@ -2573,12 +2612,12 @@
         <v>9</v>
       </c>
       <c r="G60" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B61" t="s">
         <v>26</v>
@@ -2593,12 +2632,12 @@
         <v>9</v>
       </c>
       <c r="G61" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B62" t="s">
         <v>27</v>
@@ -2613,12 +2652,12 @@
         <v>9</v>
       </c>
       <c r="G62" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B63" t="s">
         <v>28</v>
@@ -2633,12 +2672,12 @@
         <v>9</v>
       </c>
       <c r="G63" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B64" t="s">
         <v>29</v>
@@ -2653,12 +2692,12 @@
         <v>9</v>
       </c>
       <c r="G64" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B65" t="s">
         <v>30</v>
@@ -2673,12 +2712,12 @@
         <v>9</v>
       </c>
       <c r="G65" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B66" t="s">
         <v>31</v>
@@ -2692,13 +2731,13 @@
       <c r="E66" t="s">
         <v>9</v>
       </c>
-      <c r="G66" s="6" t="s">
-        <v>194</v>
+      <c r="G66" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B67" t="s">
         <v>32</v>
@@ -2713,12 +2752,12 @@
         <v>9</v>
       </c>
       <c r="G67" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B68" t="s">
         <v>33</v>
@@ -2727,18 +2766,18 @@
         <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E68" t="s">
         <v>9</v>
       </c>
       <c r="G68" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B69" t="s">
         <v>34</v>
@@ -2753,12 +2792,12 @@
         <v>9</v>
       </c>
       <c r="G69" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B70" t="s">
         <v>35</v>
@@ -2773,12 +2812,12 @@
         <v>9</v>
       </c>
       <c r="G70" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B71" t="s">
         <v>36</v>
@@ -2793,12 +2832,12 @@
         <v>9</v>
       </c>
       <c r="G71" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B72" t="s">
         <v>37</v>
@@ -2813,12 +2852,12 @@
         <v>9</v>
       </c>
       <c r="G72" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B73" t="s">
         <v>38</v>
@@ -2830,15 +2869,15 @@
         <v>25</v>
       </c>
       <c r="E73" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G73" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B74" t="s">
         <v>46</v>
@@ -2850,15 +2889,15 @@
         <v>8</v>
       </c>
       <c r="E74" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G74" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B75" t="s">
         <v>40</v>
@@ -2870,15 +2909,15 @@
         <v>25</v>
       </c>
       <c r="E75" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G75" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B76" t="s">
         <v>31</v>
@@ -2890,15 +2929,15 @@
         <v>25</v>
       </c>
       <c r="E76" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G76" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B77" t="s">
         <v>32</v>
@@ -2910,15 +2949,15 @@
         <v>14</v>
       </c>
       <c r="E77" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G77" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B78" t="s">
         <v>15</v>
@@ -2930,15 +2969,15 @@
         <v>8</v>
       </c>
       <c r="E78" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G78" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B79" t="s">
         <v>47</v>
@@ -2947,18 +2986,18 @@
         <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E79" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G79" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B80" t="s">
         <v>45</v>
@@ -2970,15 +3009,15 @@
         <v>25</v>
       </c>
       <c r="E80" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G80" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B81" t="s">
         <v>59</v>
@@ -2992,13 +3031,13 @@
       <c r="E81" t="s">
         <v>9</v>
       </c>
-      <c r="G81" s="6" t="s">
-        <v>201</v>
+      <c r="G81" s="5" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B82" t="s">
         <v>61</v>
@@ -3012,13 +3051,13 @@
       <c r="E82" t="s">
         <v>9</v>
       </c>
-      <c r="G82" s="6" t="s">
-        <v>201</v>
+      <c r="G82" s="5" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B83" t="s">
         <v>38</v>
@@ -3033,12 +3072,12 @@
         <v>9</v>
       </c>
       <c r="G83" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B84" t="s">
         <v>62</v>
@@ -3053,12 +3092,12 @@
         <v>9</v>
       </c>
       <c r="G84" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B85" t="s">
         <v>63</v>
@@ -3073,12 +3112,12 @@
         <v>9</v>
       </c>
       <c r="G85" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B86" t="s">
         <v>64</v>
@@ -3093,12 +3132,12 @@
         <v>9</v>
       </c>
       <c r="G86" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B87" t="s">
         <v>65</v>
@@ -3113,12 +3152,12 @@
         <v>9</v>
       </c>
       <c r="G87" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B88" t="s">
         <v>20</v>
@@ -3133,12 +3172,12 @@
         <v>9</v>
       </c>
       <c r="G88" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B89" t="s">
         <v>66</v>
@@ -3153,12 +3192,12 @@
         <v>9</v>
       </c>
       <c r="G89" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B90" t="s">
         <v>53</v>
@@ -3173,12 +3212,12 @@
         <v>9</v>
       </c>
       <c r="G90" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B91" t="s">
         <v>67</v>
@@ -3193,12 +3232,12 @@
         <v>9</v>
       </c>
       <c r="G91" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B92" t="s">
         <v>33</v>
@@ -3207,18 +3246,18 @@
         <v>6</v>
       </c>
       <c r="D92" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E92" t="s">
         <v>9</v>
       </c>
       <c r="G92" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B93" t="s">
         <v>68</v>
@@ -3233,12 +3272,12 @@
         <v>9</v>
       </c>
       <c r="G93" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B94" t="s">
         <v>69</v>
@@ -3253,12 +3292,12 @@
         <v>9</v>
       </c>
       <c r="G94" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B95" t="s">
         <v>70</v>
@@ -3273,15 +3312,15 @@
         <v>9</v>
       </c>
       <c r="G95" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B96" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -3293,12 +3332,12 @@
         <v>9</v>
       </c>
       <c r="G96" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B97" t="s">
         <v>71</v>
@@ -3313,12 +3352,12 @@
         <v>9</v>
       </c>
       <c r="G97" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B98" t="s">
         <v>82</v>
@@ -3332,13 +3371,13 @@
       <c r="E98" t="s">
         <v>9</v>
       </c>
-      <c r="G98" s="6" t="s">
-        <v>204</v>
+      <c r="G98" s="5" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B99" t="s">
         <v>83</v>
@@ -3352,13 +3391,13 @@
       <c r="E99" t="s">
         <v>9</v>
       </c>
-      <c r="G99" s="6" t="s">
-        <v>204</v>
+      <c r="G99" s="5" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B100" t="s">
         <v>84</v>
@@ -3372,13 +3411,13 @@
       <c r="E100" t="s">
         <v>9</v>
       </c>
-      <c r="G100" s="6" t="s">
-        <v>204</v>
+      <c r="G100" s="5" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B101" t="s">
         <v>85</v>
@@ -3392,13 +3431,13 @@
       <c r="E101" t="s">
         <v>9</v>
       </c>
-      <c r="G101" s="6" t="s">
-        <v>204</v>
+      <c r="G101" s="5" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B102" t="s">
         <v>86</v>
@@ -3412,13 +3451,13 @@
       <c r="E102" t="s">
         <v>9</v>
       </c>
-      <c r="G102" s="6" t="s">
-        <v>204</v>
+      <c r="G102" s="5" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B103" t="s">
         <v>88</v>
@@ -3432,13 +3471,13 @@
       <c r="E103" t="s">
         <v>9</v>
       </c>
-      <c r="G103" s="6" t="s">
-        <v>204</v>
+      <c r="G103" s="5" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B104" t="s">
         <v>41</v>
@@ -3452,13 +3491,13 @@
       <c r="E104" t="s">
         <v>9</v>
       </c>
-      <c r="G104" s="6" t="s">
-        <v>204</v>
+      <c r="G104" s="5" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B105" t="s">
         <v>89</v>
@@ -3472,13 +3511,13 @@
       <c r="E105" t="s">
         <v>9</v>
       </c>
-      <c r="G105" s="6" t="s">
-        <v>204</v>
+      <c r="G105" s="5" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B106" t="s">
         <v>90</v>
@@ -3492,13 +3531,13 @@
       <c r="E106" t="s">
         <v>9</v>
       </c>
-      <c r="G106" s="6" t="s">
-        <v>204</v>
+      <c r="G106" s="5" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B107" t="s">
         <v>91</v>
@@ -3512,13 +3551,13 @@
       <c r="E107" t="s">
         <v>9</v>
       </c>
-      <c r="G107" s="6" t="s">
-        <v>204</v>
+      <c r="G107" s="5" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B108" t="s">
         <v>11</v>
@@ -3532,13 +3571,13 @@
       <c r="E108" t="s">
         <v>9</v>
       </c>
-      <c r="G108" s="6" t="s">
-        <v>204</v>
+      <c r="G108" s="5" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B109" t="s">
         <v>92</v>
@@ -3552,13 +3591,13 @@
       <c r="E109" t="s">
         <v>9</v>
       </c>
-      <c r="G109" s="6" t="s">
-        <v>204</v>
+      <c r="G109" s="5" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B110" t="s">
         <v>93</v>
@@ -3572,13 +3611,13 @@
       <c r="E110" t="s">
         <v>9</v>
       </c>
-      <c r="G110" s="6" t="s">
-        <v>204</v>
+      <c r="G110" s="5" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B111" t="s">
         <v>94</v>
@@ -3592,13 +3631,13 @@
       <c r="E111" t="s">
         <v>9</v>
       </c>
-      <c r="G111" s="6" t="s">
-        <v>204</v>
+      <c r="G111" s="5" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B112" t="s">
         <v>95</v>
@@ -3612,13 +3651,13 @@
       <c r="E112" t="s">
         <v>9</v>
       </c>
-      <c r="G112" s="6" t="s">
-        <v>204</v>
+      <c r="G112" s="5" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B113" t="s">
         <v>96</v>
@@ -3632,13 +3671,13 @@
       <c r="E113" t="s">
         <v>9</v>
       </c>
-      <c r="G113" s="6" t="s">
-        <v>204</v>
+      <c r="G113" s="5" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B114" t="s">
         <v>97</v>
@@ -3652,13 +3691,13 @@
       <c r="E114" t="s">
         <v>9</v>
       </c>
-      <c r="G114" s="6" t="s">
-        <v>204</v>
+      <c r="G114" s="5" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B115" t="s">
         <v>57</v>
@@ -3672,13 +3711,13 @@
       <c r="E115" t="s">
         <v>9</v>
       </c>
-      <c r="G115" s="6" t="s">
-        <v>204</v>
+      <c r="G115" s="5" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B116" t="s">
         <v>71</v>
@@ -3692,13 +3731,13 @@
       <c r="E116" t="s">
         <v>9</v>
       </c>
-      <c r="G116" s="6" t="s">
-        <v>204</v>
+      <c r="G116" s="5" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B117" t="s">
         <v>110</v>
@@ -3707,18 +3746,18 @@
         <v>1</v>
       </c>
       <c r="D117" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E117" t="s">
         <v>9</v>
       </c>
-      <c r="G117" s="6" t="s">
-        <v>206</v>
+      <c r="G117" s="5" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B118" t="s">
         <v>32</v>
@@ -3733,12 +3772,12 @@
         <v>9</v>
       </c>
       <c r="G118" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B119" t="s">
         <v>33</v>
@@ -3747,18 +3786,18 @@
         <v>1</v>
       </c>
       <c r="D119" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E119" t="s">
         <v>9</v>
       </c>
       <c r="G119" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B120" t="s">
         <v>105</v>
@@ -3773,12 +3812,12 @@
         <v>9</v>
       </c>
       <c r="G120" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B121" t="s">
         <v>111</v>
@@ -3787,18 +3826,18 @@
         <v>0.3</v>
       </c>
       <c r="D121" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E121" t="s">
         <v>9</v>
       </c>
       <c r="G121" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B122" t="s">
         <v>112</v>
@@ -3807,18 +3846,18 @@
         <v>3</v>
       </c>
       <c r="D122" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E122" t="s">
         <v>9</v>
       </c>
       <c r="G122" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B123" t="s">
         <v>113</v>
@@ -3833,12 +3872,12 @@
         <v>9</v>
       </c>
       <c r="G123" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B124" t="s">
         <v>70</v>
@@ -3853,12 +3892,12 @@
         <v>9</v>
       </c>
       <c r="G124" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B125" t="s">
         <v>17</v>
@@ -3873,12 +3912,12 @@
         <v>9</v>
       </c>
       <c r="G125" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B126" t="s">
         <v>114</v>
@@ -3887,104 +3926,104 @@
         <v>12</v>
       </c>
       <c r="D126" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E126" t="s">
         <v>9</v>
       </c>
       <c r="G126" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B127" t="s">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D127" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E127" t="s">
         <v>9</v>
       </c>
-      <c r="G127" s="6" t="s">
-        <v>211</v>
+      <c r="G127" s="5" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B128" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C128">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="D128" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E128" t="s">
         <v>9</v>
       </c>
       <c r="G128" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B129" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="C129">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D129" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E129" t="s">
         <v>9</v>
       </c>
       <c r="G129" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B130" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="C130">
-        <v>2</v>
+        <v>0.125</v>
       </c>
       <c r="D130" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E130" t="s">
         <v>9</v>
       </c>
       <c r="G130" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B131" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D131" t="s">
         <v>8</v>
@@ -3993,78 +4032,78 @@
         <v>9</v>
       </c>
       <c r="G131" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B132" t="s">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D132" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E132" t="s">
         <v>9</v>
       </c>
       <c r="G132" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B133" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="C133">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="D133" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E133" t="s">
         <v>9</v>
       </c>
-      <c r="G133" s="6" t="s">
-        <v>213</v>
+      <c r="G133" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B134" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C134">
-        <v>50</v>
+        <v>0.25</v>
       </c>
       <c r="D134" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E134" t="s">
         <v>9</v>
       </c>
       <c r="G134" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B135" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="C135">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D135" t="s">
         <v>8</v>
@@ -4073,18 +4112,18 @@
         <v>9</v>
       </c>
       <c r="G135" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B136" t="s">
-        <v>124</v>
+        <v>57</v>
       </c>
       <c r="C136">
-        <v>0.125</v>
+        <v>3</v>
       </c>
       <c r="D136" t="s">
         <v>8</v>
@@ -4093,115 +4132,115 @@
         <v>9</v>
       </c>
       <c r="G136" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B137" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C137">
-        <v>3</v>
+        <v>1000</v>
       </c>
       <c r="D137" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="E137" t="s">
-        <v>9</v>
+        <v>210</v>
       </c>
       <c r="G137" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B138" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C138">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="D138" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E138" t="s">
-        <v>9</v>
+        <v>210</v>
       </c>
       <c r="G138" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B139" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="C139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D139" t="s">
         <v>14</v>
       </c>
       <c r="E139" t="s">
-        <v>9</v>
+        <v>210</v>
       </c>
       <c r="G139" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B140" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C140">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D140" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E140" t="s">
-        <v>9</v>
+        <v>210</v>
       </c>
       <c r="G140" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B141" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C141">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D141" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E141" t="s">
-        <v>9</v>
+        <v>210</v>
       </c>
       <c r="G141" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B142" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="C142">
         <v>3</v>
@@ -4210,138 +4249,138 @@
         <v>8</v>
       </c>
       <c r="E142" t="s">
-        <v>9</v>
+        <v>210</v>
       </c>
       <c r="G142" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B143" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="C143">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="D143" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="E143" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G143" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
+        <v>212</v>
+      </c>
+      <c r="B144" t="s">
+        <v>129</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144" t="s">
+        <v>195</v>
+      </c>
+      <c r="E144" t="s">
+        <v>213</v>
+      </c>
+      <c r="G144" t="s">
         <v>214</v>
-      </c>
-      <c r="B144" t="s">
-        <v>128</v>
-      </c>
-      <c r="C144">
-        <v>100</v>
-      </c>
-      <c r="D144" t="s">
-        <v>25</v>
-      </c>
-      <c r="E144" t="s">
-        <v>215</v>
-      </c>
-      <c r="G144" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
+        <v>212</v>
+      </c>
+      <c r="B145" t="s">
+        <v>130</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145" t="s">
+        <v>195</v>
+      </c>
+      <c r="E145" t="s">
+        <v>213</v>
+      </c>
+      <c r="G145" t="s">
         <v>214</v>
-      </c>
-      <c r="B145" t="s">
-        <v>88</v>
-      </c>
-      <c r="C145">
-        <v>1</v>
-      </c>
-      <c r="D145" t="s">
-        <v>14</v>
-      </c>
-      <c r="E145" t="s">
-        <v>215</v>
-      </c>
-      <c r="G145" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B146" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="D146" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E146" t="s">
-        <v>215</v>
-      </c>
-      <c r="G146" t="s">
+        <v>213</v>
+      </c>
+      <c r="G146" s="5" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B147" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
       <c r="D147" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E147" t="s">
-        <v>215</v>
-      </c>
-      <c r="G147" t="s">
+        <v>213</v>
+      </c>
+      <c r="G147" s="5" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B148" t="s">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="C148">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D148" t="s">
         <v>8</v>
       </c>
       <c r="E148" t="s">
-        <v>215</v>
-      </c>
-      <c r="G148" t="s">
+        <v>213</v>
+      </c>
+      <c r="G148" s="5" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B149" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -4350,78 +4389,78 @@
         <v>14</v>
       </c>
       <c r="E149" t="s">
-        <v>215</v>
-      </c>
-      <c r="G149" t="s">
+        <v>213</v>
+      </c>
+      <c r="G149" s="5" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B150" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="D150" t="s">
-        <v>198</v>
+        <v>25</v>
       </c>
       <c r="E150" t="s">
-        <v>218</v>
-      </c>
-      <c r="G150" t="s">
-        <v>219</v>
+        <v>213</v>
+      </c>
+      <c r="G150" s="5" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B151" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D151" t="s">
-        <v>198</v>
+        <v>25</v>
       </c>
       <c r="E151" t="s">
-        <v>218</v>
-      </c>
-      <c r="G151" t="s">
-        <v>219</v>
+        <v>213</v>
+      </c>
+      <c r="G151" s="5" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B152" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C152">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="D152" t="s">
         <v>25</v>
       </c>
       <c r="E152" t="s">
-        <v>218</v>
-      </c>
-      <c r="G152" s="6" t="s">
-        <v>221</v>
+        <v>213</v>
+      </c>
+      <c r="G152" s="5" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B153" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -4430,18 +4469,18 @@
         <v>8</v>
       </c>
       <c r="E153" t="s">
-        <v>218</v>
-      </c>
-      <c r="G153" s="6" t="s">
-        <v>221</v>
+        <v>213</v>
+      </c>
+      <c r="G153" s="5" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B154" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -4450,261 +4489,261 @@
         <v>8</v>
       </c>
       <c r="E154" t="s">
-        <v>218</v>
-      </c>
-      <c r="G154" s="6" t="s">
-        <v>221</v>
+        <v>213</v>
+      </c>
+      <c r="G154" s="5" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B155" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>1440</v>
       </c>
       <c r="D155" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="E155" t="s">
+        <v>9</v>
+      </c>
+      <c r="G155" t="s">
         <v>218</v>
-      </c>
-      <c r="G155" s="6" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B156" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="C156">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="D156" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="E156" t="s">
+        <v>9</v>
+      </c>
+      <c r="G156" t="s">
         <v>218</v>
-      </c>
-      <c r="G156" s="6" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B157" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="C157">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="D157" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="E157" t="s">
+        <v>9</v>
+      </c>
+      <c r="G157" t="s">
         <v>218</v>
-      </c>
-      <c r="G157" s="6" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
+        <v>217</v>
+      </c>
+      <c r="B158" t="s">
+        <v>219</v>
+      </c>
+      <c r="C158">
+        <v>2</v>
+      </c>
+      <c r="D158" t="s">
         <v>220</v>
       </c>
-      <c r="B158" t="s">
-        <v>57</v>
-      </c>
-      <c r="C158">
-        <v>50</v>
-      </c>
-      <c r="D158" t="s">
-        <v>25</v>
-      </c>
       <c r="E158" t="s">
+        <v>9</v>
+      </c>
+      <c r="G158" t="s">
         <v>218</v>
-      </c>
-      <c r="G158" s="6" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B159" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D159" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E159" t="s">
+        <v>9</v>
+      </c>
+      <c r="G159" t="s">
         <v>218</v>
-      </c>
-      <c r="G159" s="6" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B160" t="s">
-        <v>144</v>
+        <v>221</v>
       </c>
       <c r="C160">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D160" t="s">
-        <v>8</v>
+        <v>195</v>
       </c>
       <c r="E160" t="s">
+        <v>9</v>
+      </c>
+      <c r="G160" t="s">
         <v>218</v>
-      </c>
-      <c r="G160" s="6" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
+        <v>217</v>
+      </c>
+      <c r="B161" t="s">
         <v>222</v>
       </c>
-      <c r="B161" t="s">
-        <v>66</v>
-      </c>
       <c r="C161">
-        <v>1440</v>
+        <v>227</v>
       </c>
       <c r="D161" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="E161" t="s">
         <v>9</v>
       </c>
       <c r="G161" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B162" t="s">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="C162">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D162" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="E162" t="s">
         <v>9</v>
       </c>
       <c r="G162" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B163" t="s">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="C163">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="D163" t="s">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="E163" t="s">
         <v>9</v>
       </c>
       <c r="G163" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B164" t="s">
         <v>224</v>
       </c>
       <c r="C164">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D164" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E164" t="s">
         <v>9</v>
       </c>
       <c r="G164" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B165" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C165">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D165" t="s">
-        <v>14</v>
+        <v>220</v>
       </c>
       <c r="E165" t="s">
         <v>9</v>
       </c>
       <c r="G165" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B166" t="s">
-        <v>226</v>
+        <v>32</v>
       </c>
       <c r="C166">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D166" t="s">
-        <v>198</v>
+        <v>14</v>
       </c>
       <c r="E166" t="s">
         <v>9</v>
       </c>
       <c r="G166" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B167" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C167">
-        <v>227</v>
+        <v>680</v>
       </c>
       <c r="D167" t="s">
         <v>25</v>
@@ -4713,178 +4752,175 @@
         <v>9</v>
       </c>
       <c r="G167" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B168" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="C168">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D168" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E168" t="s">
         <v>9</v>
       </c>
       <c r="G168" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B169" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>170</v>
       </c>
       <c r="D169" t="s">
-        <v>225</v>
+        <v>25</v>
       </c>
       <c r="E169" t="s">
         <v>9</v>
       </c>
       <c r="G169" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B170" t="s">
-        <v>229</v>
+        <v>53</v>
       </c>
       <c r="C170">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D170" t="s">
-        <v>225</v>
+        <v>14</v>
       </c>
       <c r="E170" t="s">
         <v>9</v>
       </c>
       <c r="G170" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B171" t="s">
-        <v>13</v>
+        <v>227</v>
       </c>
       <c r="C171">
-        <v>3</v>
+        <v>397</v>
       </c>
       <c r="D171" t="s">
-        <v>225</v>
+        <v>25</v>
       </c>
       <c r="E171" t="s">
         <v>9</v>
       </c>
       <c r="G171" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B172" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D172" t="s">
-        <v>14</v>
+        <v>229</v>
       </c>
       <c r="E172" t="s">
         <v>9</v>
       </c>
       <c r="G172" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B173" t="s">
-        <v>230</v>
+        <v>13</v>
       </c>
       <c r="C173">
-        <v>680</v>
+        <v>2</v>
       </c>
       <c r="D173" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E173" t="s">
         <v>9</v>
       </c>
       <c r="G173" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B174" t="s">
-        <v>56</v>
+        <v>230</v>
       </c>
       <c r="C174">
-        <v>8</v>
-      </c>
-      <c r="D174" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E174" t="s">
         <v>9</v>
       </c>
       <c r="G174" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B175" t="s">
         <v>231</v>
       </c>
       <c r="C175">
-        <v>170</v>
+        <v>1</v>
       </c>
       <c r="D175" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E175" t="s">
         <v>9</v>
       </c>
       <c r="G175" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B176" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="C176">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D176" t="s">
         <v>14</v>
@@ -4892,156 +4928,159 @@
       <c r="E176" t="s">
         <v>9</v>
       </c>
-      <c r="G176" t="s">
-        <v>223</v>
+      <c r="G176" s="5" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B177" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C177">
-        <v>397</v>
+        <v>0.5</v>
       </c>
       <c r="D177" t="s">
-        <v>25</v>
+        <v>229</v>
       </c>
       <c r="E177" t="s">
         <v>9</v>
       </c>
-      <c r="G177" t="s">
-        <v>223</v>
+      <c r="G177" s="5" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B178" t="s">
+        <v>13</v>
+      </c>
+      <c r="C178">
+        <v>5</v>
+      </c>
+      <c r="D178" t="s">
+        <v>14</v>
+      </c>
+      <c r="E178" t="s">
+        <v>9</v>
+      </c>
+      <c r="G178" s="5" t="s">
         <v>233</v>
-      </c>
-      <c r="C178">
-        <v>0.5</v>
-      </c>
-      <c r="D178" t="s">
-        <v>234</v>
-      </c>
-      <c r="E178" t="s">
-        <v>9</v>
-      </c>
-      <c r="G178" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B179" t="s">
-        <v>13</v>
+        <v>234</v>
       </c>
       <c r="C179">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D179" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="E179" t="s">
         <v>9</v>
       </c>
-      <c r="G179" t="s">
-        <v>223</v>
+      <c r="G179" s="5" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B180" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C180">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="D180" t="s">
+        <v>237</v>
       </c>
       <c r="E180" t="s">
         <v>9</v>
       </c>
-      <c r="G180" t="s">
-        <v>223</v>
+      <c r="G180" s="5" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B181" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
       <c r="E181" t="s">
         <v>9</v>
       </c>
-      <c r="G181" t="s">
-        <v>223</v>
+      <c r="G181" s="5" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B182" t="s">
-        <v>19</v>
+        <v>240</v>
       </c>
       <c r="C182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D182" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
       <c r="E182" t="s">
         <v>9</v>
       </c>
-      <c r="G182" s="6" t="s">
-        <v>238</v>
+      <c r="G182" s="5" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B183" t="s">
+        <v>241</v>
+      </c>
+      <c r="C183">
+        <v>2</v>
+      </c>
+      <c r="D183" t="s">
+        <v>242</v>
+      </c>
+      <c r="E183" t="s">
+        <v>9</v>
+      </c>
+      <c r="G183" s="5" t="s">
         <v>233</v>
-      </c>
-      <c r="C183">
-        <v>0.5</v>
-      </c>
-      <c r="D183" t="s">
-        <v>234</v>
-      </c>
-      <c r="E183" t="s">
-        <v>9</v>
-      </c>
-      <c r="G183" s="6" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B184" t="s">
-        <v>13</v>
+        <v>227</v>
       </c>
       <c r="C184">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D184" t="s">
         <v>14</v>
@@ -5049,179 +5088,179 @@
       <c r="E184" t="s">
         <v>9</v>
       </c>
-      <c r="G184" s="6" t="s">
-        <v>238</v>
+      <c r="G184" s="5" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B185" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C185">
-        <v>6</v>
+        <v>454</v>
       </c>
       <c r="D185" t="s">
-        <v>240</v>
+        <v>25</v>
       </c>
       <c r="E185" t="s">
         <v>9</v>
       </c>
-      <c r="G185" s="6" t="s">
-        <v>238</v>
+      <c r="G185" s="5" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B186" t="s">
-        <v>241</v>
+        <v>78</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186" t="s">
-        <v>242</v>
+        <v>14</v>
       </c>
       <c r="E186" t="s">
         <v>9</v>
       </c>
-      <c r="G186" s="6" t="s">
-        <v>238</v>
+      <c r="G186" s="5" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B187" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="C187">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D187" t="s">
-        <v>244</v>
+        <v>14</v>
       </c>
       <c r="E187" t="s">
         <v>9</v>
       </c>
-      <c r="G187" s="6" t="s">
-        <v>238</v>
+      <c r="G187" s="5" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B188" t="s">
-        <v>245</v>
+        <v>33</v>
       </c>
       <c r="C188">
         <v>2</v>
       </c>
       <c r="D188" t="s">
-        <v>244</v>
+        <v>14</v>
       </c>
       <c r="E188" t="s">
         <v>9</v>
       </c>
-      <c r="G188" s="6" t="s">
-        <v>238</v>
+      <c r="G188" s="5" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B189" t="s">
-        <v>246</v>
+        <v>125</v>
       </c>
       <c r="C189">
         <v>2</v>
       </c>
       <c r="D189" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="E189" t="s">
         <v>9</v>
       </c>
-      <c r="G189" s="6" t="s">
-        <v>238</v>
+      <c r="G189" s="5" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B190" t="s">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190" t="s">
-        <v>14</v>
+        <v>220</v>
       </c>
       <c r="E190" t="s">
         <v>9</v>
       </c>
-      <c r="G190" s="6" t="s">
-        <v>238</v>
+      <c r="G190" s="5" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B191" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C191">
-        <v>454</v>
+        <v>6</v>
       </c>
       <c r="D191" t="s">
-        <v>25</v>
+        <v>220</v>
       </c>
       <c r="E191" t="s">
         <v>9</v>
       </c>
-      <c r="G191" s="6" t="s">
-        <v>238</v>
+      <c r="G191" s="5" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B192" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>680</v>
       </c>
       <c r="D192" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E192" t="s">
         <v>9</v>
       </c>
-      <c r="G192" s="6" t="s">
-        <v>238</v>
+      <c r="G192" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B193" t="s">
-        <v>235</v>
+        <v>19</v>
       </c>
       <c r="C193">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D193" t="s">
         <v>14</v>
@@ -5229,16 +5268,16 @@
       <c r="E193" t="s">
         <v>9</v>
       </c>
-      <c r="G193" s="6" t="s">
-        <v>238</v>
+      <c r="G193" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B194" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="C194">
         <v>2</v>
@@ -5249,193 +5288,193 @@
       <c r="E194" t="s">
         <v>9</v>
       </c>
-      <c r="G194" s="6" t="s">
-        <v>238</v>
+      <c r="G194" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B195" t="s">
-        <v>125</v>
+        <v>247</v>
       </c>
       <c r="C195">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D195" t="s">
-        <v>225</v>
+        <v>14</v>
       </c>
       <c r="E195" t="s">
         <v>9</v>
       </c>
-      <c r="G195" s="6" t="s">
-        <v>238</v>
+      <c r="G195" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B196" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196" t="s">
-        <v>225</v>
+        <v>14</v>
       </c>
       <c r="E196" t="s">
         <v>9</v>
       </c>
-      <c r="G196" s="6" t="s">
-        <v>238</v>
+      <c r="G196" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B197" t="s">
-        <v>249</v>
+        <v>33</v>
       </c>
       <c r="C197">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D197" t="s">
-        <v>225</v>
+        <v>14</v>
       </c>
       <c r="E197" t="s">
         <v>9</v>
       </c>
-      <c r="G197" s="6" t="s">
-        <v>238</v>
+      <c r="G197" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B198" t="s">
-        <v>53</v>
+        <v>248</v>
       </c>
       <c r="C198">
-        <v>680</v>
+        <v>1</v>
       </c>
       <c r="D198" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E198" t="s">
         <v>9</v>
       </c>
       <c r="G198" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B199" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="C199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D199" t="s">
-        <v>14</v>
+        <v>249</v>
       </c>
       <c r="E199" t="s">
         <v>9</v>
       </c>
       <c r="G199" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B200" t="s">
-        <v>71</v>
+        <v>181</v>
       </c>
       <c r="C200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D200" t="s">
-        <v>14</v>
+        <v>220</v>
       </c>
       <c r="E200" t="s">
         <v>9</v>
       </c>
       <c r="G200" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B201" t="s">
-        <v>252</v>
+        <v>29</v>
       </c>
       <c r="C201">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D201" t="s">
-        <v>14</v>
+        <v>220</v>
       </c>
       <c r="E201" t="s">
         <v>9</v>
       </c>
       <c r="G201" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
+        <v>245</v>
+      </c>
+      <c r="B202" t="s">
         <v>250</v>
       </c>
-      <c r="B202" t="s">
-        <v>11</v>
-      </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202" t="s">
-        <v>14</v>
+        <v>220</v>
       </c>
       <c r="E202" t="s">
         <v>9</v>
       </c>
       <c r="G202" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B203" t="s">
-        <v>33</v>
+        <v>251</v>
       </c>
       <c r="C203">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D203" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
       <c r="E203" t="s">
         <v>9</v>
       </c>
       <c r="G203" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B204" t="s">
         <v>253</v>
@@ -5450,147 +5489,147 @@
         <v>9</v>
       </c>
       <c r="G204" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B205" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C205">
-        <v>1</v>
+        <v>283</v>
       </c>
       <c r="D205" t="s">
+        <v>25</v>
+      </c>
+      <c r="E205" t="s">
+        <v>9</v>
+      </c>
+      <c r="G205" t="s">
         <v>254</v>
-      </c>
-      <c r="E205" t="s">
-        <v>9</v>
-      </c>
-      <c r="G205" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B206" t="s">
-        <v>184</v>
+        <v>125</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E206" t="s">
         <v>9</v>
       </c>
       <c r="G206" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B207" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C207">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D207" t="s">
-        <v>225</v>
+        <v>14</v>
       </c>
       <c r="E207" t="s">
         <v>9</v>
       </c>
       <c r="G207" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B208" t="s">
         <v>255</v>
       </c>
       <c r="C208">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="D208" t="s">
-        <v>225</v>
+        <v>60</v>
       </c>
       <c r="E208" t="s">
         <v>9</v>
       </c>
       <c r="G208" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B209" t="s">
-        <v>256</v>
+        <v>79</v>
       </c>
       <c r="C209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D209" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="E209" t="s">
         <v>9</v>
       </c>
       <c r="G209" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B210" t="s">
-        <v>258</v>
+        <v>57</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D210" t="s">
-        <v>14</v>
+        <v>220</v>
       </c>
       <c r="E210" t="s">
         <v>9</v>
       </c>
       <c r="G210" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B211" t="s">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="C211">
-        <v>283</v>
+        <v>1</v>
       </c>
       <c r="D211" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E211" t="s">
         <v>9</v>
       </c>
       <c r="G211" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.35">
@@ -5598,107 +5637,107 @@
         <v>257</v>
       </c>
       <c r="B212" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212" t="s">
-        <v>225</v>
+        <v>14</v>
       </c>
       <c r="E212" t="s">
-        <v>9</v>
+        <v>256</v>
       </c>
       <c r="G212" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B213" t="s">
-        <v>32</v>
+        <v>259</v>
       </c>
       <c r="C213">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D213" t="s">
         <v>14</v>
       </c>
       <c r="E213" t="s">
-        <v>9</v>
+        <v>256</v>
       </c>
       <c r="G213" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B214" t="s">
+        <v>263</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+      <c r="D214" t="s">
+        <v>14</v>
+      </c>
+      <c r="E214" t="s">
+        <v>256</v>
+      </c>
+      <c r="G214" t="s">
         <v>260</v>
-      </c>
-      <c r="C214">
-        <v>120</v>
-      </c>
-      <c r="D214" t="s">
-        <v>60</v>
-      </c>
-      <c r="E214" t="s">
-        <v>9</v>
-      </c>
-      <c r="G214" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B215" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D215" t="s">
-        <v>225</v>
+        <v>14</v>
       </c>
       <c r="E215" t="s">
-        <v>9</v>
+        <v>256</v>
       </c>
       <c r="G215" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B216" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="C216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D216" t="s">
-        <v>225</v>
+        <v>14</v>
       </c>
       <c r="E216" t="s">
-        <v>9</v>
+        <v>256</v>
       </c>
       <c r="G216" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B217" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -5707,38 +5746,38 @@
         <v>14</v>
       </c>
       <c r="E217" t="s">
-        <v>9</v>
+        <v>256</v>
       </c>
       <c r="G217" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B218" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="C218">
-        <v>1</v>
+        <v>453</v>
       </c>
       <c r="D218" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E218" t="s">
-        <v>261</v>
+        <v>210</v>
       </c>
       <c r="G218" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B219" t="s">
-        <v>264</v>
+        <v>101</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -5747,39 +5786,39 @@
         <v>14</v>
       </c>
       <c r="E219" t="s">
-        <v>261</v>
+        <v>210</v>
       </c>
       <c r="G219" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
+        <v>265</v>
+      </c>
+      <c r="B220" t="s">
         <v>266</v>
       </c>
-      <c r="B220" t="s">
+      <c r="C220">
+        <v>1</v>
+      </c>
+      <c r="D220" t="s">
+        <v>14</v>
+      </c>
+      <c r="E220" t="s">
+        <v>210</v>
+      </c>
+      <c r="G220" t="s">
         <v>268</v>
-      </c>
-      <c r="C220">
-        <v>1</v>
-      </c>
-      <c r="D220" t="s">
-        <v>14</v>
-      </c>
-      <c r="E220" t="s">
-        <v>261</v>
-      </c>
-      <c r="G220" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
+        <v>265</v>
+      </c>
+      <c r="B221" t="s">
         <v>267</v>
       </c>
-      <c r="B221" t="s">
-        <v>98</v>
-      </c>
       <c r="C221">
         <v>1</v>
       </c>
@@ -5787,10 +5826,10 @@
         <v>14</v>
       </c>
       <c r="E221" t="s">
-        <v>261</v>
+        <v>210</v>
       </c>
       <c r="G221" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.35">
@@ -5798,7 +5837,7 @@
         <v>269</v>
       </c>
       <c r="B222" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -5807,10 +5846,10 @@
         <v>14</v>
       </c>
       <c r="E222" t="s">
-        <v>261</v>
+        <v>210</v>
       </c>
       <c r="G222" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.35">
@@ -5818,7 +5857,7 @@
         <v>269</v>
       </c>
       <c r="B223" t="s">
-        <v>71</v>
+        <v>270</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -5827,38 +5866,38 @@
         <v>14</v>
       </c>
       <c r="E223" t="s">
-        <v>261</v>
+        <v>210</v>
       </c>
       <c r="G223" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B224" t="s">
-        <v>99</v>
+        <v>271</v>
       </c>
       <c r="C224">
-        <v>453</v>
+        <v>1</v>
       </c>
       <c r="D224" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E224" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G224" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B225" t="s">
-        <v>101</v>
+        <v>272</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -5867,18 +5906,18 @@
         <v>14</v>
       </c>
       <c r="E225" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G225" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B226" t="s">
-        <v>271</v>
+        <v>33</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -5887,18 +5926,18 @@
         <v>14</v>
       </c>
       <c r="E226" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G226" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B227" t="s">
-        <v>272</v>
+        <v>71</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -5907,18 +5946,18 @@
         <v>14</v>
       </c>
       <c r="E227" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G227" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B228" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -5927,15 +5966,18 @@
         <v>14</v>
       </c>
       <c r="E228" t="s">
-        <v>215</v>
+        <v>210</v>
+      </c>
+      <c r="G228" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B229" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -5944,109 +5986,770 @@
         <v>14</v>
       </c>
       <c r="E229" t="s">
-        <v>215</v>
+        <v>210</v>
+      </c>
+      <c r="G229" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
+        <v>276</v>
+      </c>
+      <c r="B230" t="s">
+        <v>275</v>
+      </c>
+      <c r="C230">
+        <v>10</v>
+      </c>
+      <c r="D230" t="s">
+        <v>25</v>
+      </c>
+      <c r="E230" t="s">
+        <v>256</v>
+      </c>
+      <c r="G230" t="s">
         <v>274</v>
-      </c>
-      <c r="B230" t="s">
-        <v>276</v>
-      </c>
-      <c r="C230">
-        <v>1</v>
-      </c>
-      <c r="D230" t="s">
-        <v>14</v>
-      </c>
-      <c r="E230" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
+        <v>276</v>
+      </c>
+      <c r="B231" t="s">
+        <v>17</v>
+      </c>
+      <c r="C231">
+        <v>3</v>
+      </c>
+      <c r="D231" t="s">
+        <v>8</v>
+      </c>
+      <c r="E231" t="s">
+        <v>256</v>
+      </c>
+      <c r="G231" t="s">
         <v>274</v>
-      </c>
-      <c r="B231" t="s">
-        <v>277</v>
-      </c>
-      <c r="C231">
-        <v>1</v>
-      </c>
-      <c r="D231" t="s">
-        <v>14</v>
-      </c>
-      <c r="E231" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
+        <v>276</v>
+      </c>
+      <c r="B232" t="s">
+        <v>84</v>
+      </c>
+      <c r="C232">
+        <v>100</v>
+      </c>
+      <c r="D232" t="s">
+        <v>25</v>
+      </c>
+      <c r="E232" t="s">
+        <v>256</v>
+      </c>
+      <c r="G232" t="s">
         <v>274</v>
-      </c>
-      <c r="B232" t="s">
-        <v>33</v>
-      </c>
-      <c r="C232">
-        <v>1</v>
-      </c>
-      <c r="D232" t="s">
-        <v>14</v>
-      </c>
-      <c r="E232" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
+        <v>276</v>
+      </c>
+      <c r="B233" t="s">
+        <v>33</v>
+      </c>
+      <c r="C233">
+        <v>3</v>
+      </c>
+      <c r="D233" t="s">
+        <v>8</v>
+      </c>
+      <c r="E233" t="s">
+        <v>256</v>
+      </c>
+      <c r="G233" t="s">
         <v>274</v>
-      </c>
-      <c r="B233" t="s">
-        <v>71</v>
-      </c>
-      <c r="C233">
-        <v>1</v>
-      </c>
-      <c r="D233" t="s">
-        <v>14</v>
-      </c>
-      <c r="E233" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
+        <v>276</v>
+      </c>
+      <c r="B234" t="s">
+        <v>29</v>
+      </c>
+      <c r="C234">
+        <v>1</v>
+      </c>
+      <c r="D234" t="s">
+        <v>8</v>
+      </c>
+      <c r="E234" t="s">
+        <v>256</v>
+      </c>
+      <c r="G234" t="s">
         <v>274</v>
-      </c>
-      <c r="B234" t="s">
-        <v>109</v>
-      </c>
-      <c r="C234">
-        <v>1</v>
-      </c>
-      <c r="D234" t="s">
-        <v>14</v>
-      </c>
-      <c r="E234" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
+        <v>276</v>
+      </c>
+      <c r="B235" t="s">
+        <v>163</v>
+      </c>
+      <c r="C235">
+        <v>1</v>
+      </c>
+      <c r="D235" t="s">
+        <v>8</v>
+      </c>
+      <c r="E235" t="s">
+        <v>256</v>
+      </c>
+      <c r="G235" t="s">
         <v>274</v>
       </c>
-      <c r="B235" t="s">
-        <v>278</v>
-      </c>
-      <c r="C235">
-        <v>1</v>
-      </c>
-      <c r="D235" t="s">
-        <v>14</v>
-      </c>
-      <c r="E235" t="s">
-        <v>215</v>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>280</v>
+      </c>
+      <c r="B236" t="s">
+        <v>162</v>
+      </c>
+      <c r="C236">
+        <v>100</v>
+      </c>
+      <c r="D236" t="s">
+        <v>25</v>
+      </c>
+      <c r="E236" t="s">
+        <v>9</v>
+      </c>
+      <c r="G236" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>280</v>
+      </c>
+      <c r="B237" t="s">
+        <v>84</v>
+      </c>
+      <c r="C237">
+        <v>100</v>
+      </c>
+      <c r="D237" t="s">
+        <v>25</v>
+      </c>
+      <c r="E237" t="s">
+        <v>9</v>
+      </c>
+      <c r="G237" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>280</v>
+      </c>
+      <c r="B238" t="s">
+        <v>281</v>
+      </c>
+      <c r="C238">
+        <v>18</v>
+      </c>
+      <c r="D238" t="s">
+        <v>8</v>
+      </c>
+      <c r="E238" t="s">
+        <v>9</v>
+      </c>
+      <c r="G238" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>280</v>
+      </c>
+      <c r="B239" t="s">
+        <v>105</v>
+      </c>
+      <c r="C239">
+        <v>3</v>
+      </c>
+      <c r="D239" t="s">
+        <v>8</v>
+      </c>
+      <c r="E239" t="s">
+        <v>9</v>
+      </c>
+      <c r="G239" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>280</v>
+      </c>
+      <c r="B240" t="s">
+        <v>33</v>
+      </c>
+      <c r="C240">
+        <v>1</v>
+      </c>
+      <c r="D240" t="s">
+        <v>8</v>
+      </c>
+      <c r="E240" t="s">
+        <v>9</v>
+      </c>
+      <c r="G240" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>280</v>
+      </c>
+      <c r="B241" t="s">
+        <v>164</v>
+      </c>
+      <c r="C241">
+        <v>100</v>
+      </c>
+      <c r="D241" t="s">
+        <v>25</v>
+      </c>
+      <c r="E241" t="s">
+        <v>9</v>
+      </c>
+      <c r="G241" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>280</v>
+      </c>
+      <c r="B242" t="s">
+        <v>71</v>
+      </c>
+      <c r="C242">
+        <v>1</v>
+      </c>
+      <c r="D242" t="s">
+        <v>14</v>
+      </c>
+      <c r="E242" t="s">
+        <v>9</v>
+      </c>
+      <c r="G242" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>280</v>
+      </c>
+      <c r="B243" t="s">
+        <v>21</v>
+      </c>
+      <c r="C243">
+        <v>2</v>
+      </c>
+      <c r="D243" t="s">
+        <v>14</v>
+      </c>
+      <c r="E243" t="s">
+        <v>9</v>
+      </c>
+      <c r="G243" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>280</v>
+      </c>
+      <c r="B244" t="s">
+        <v>13</v>
+      </c>
+      <c r="C244">
+        <v>2</v>
+      </c>
+      <c r="D244" t="s">
+        <v>14</v>
+      </c>
+      <c r="E244" t="s">
+        <v>9</v>
+      </c>
+      <c r="G244" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>280</v>
+      </c>
+      <c r="B245" t="s">
+        <v>163</v>
+      </c>
+      <c r="C245">
+        <v>3</v>
+      </c>
+      <c r="D245" t="s">
+        <v>8</v>
+      </c>
+      <c r="E245" t="s">
+        <v>9</v>
+      </c>
+      <c r="G245" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>280</v>
+      </c>
+      <c r="B246" t="s">
+        <v>166</v>
+      </c>
+      <c r="C246">
+        <v>130</v>
+      </c>
+      <c r="D246" t="s">
+        <v>25</v>
+      </c>
+      <c r="E246" t="s">
+        <v>9</v>
+      </c>
+      <c r="G246" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>283</v>
+      </c>
+      <c r="B247" t="s">
+        <v>38</v>
+      </c>
+      <c r="C247">
+        <v>1.5</v>
+      </c>
+      <c r="D247" t="s">
+        <v>195</v>
+      </c>
+      <c r="E247" t="s">
+        <v>213</v>
+      </c>
+      <c r="G247" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>283</v>
+      </c>
+      <c r="B248" t="s">
+        <v>163</v>
+      </c>
+      <c r="C248">
+        <v>1</v>
+      </c>
+      <c r="D248" t="s">
+        <v>8</v>
+      </c>
+      <c r="E248" t="s">
+        <v>213</v>
+      </c>
+      <c r="G248" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>283</v>
+      </c>
+      <c r="B249" t="s">
+        <v>236</v>
+      </c>
+      <c r="C249">
+        <v>170</v>
+      </c>
+      <c r="D249" t="s">
+        <v>25</v>
+      </c>
+      <c r="E249" t="s">
+        <v>213</v>
+      </c>
+      <c r="G249" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>283</v>
+      </c>
+      <c r="B250" t="s">
+        <v>247</v>
+      </c>
+      <c r="C250">
+        <v>0.5</v>
+      </c>
+      <c r="D250" t="s">
+        <v>14</v>
+      </c>
+      <c r="E250" t="s">
+        <v>213</v>
+      </c>
+      <c r="G250" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>283</v>
+      </c>
+      <c r="B251" t="s">
+        <v>19</v>
+      </c>
+      <c r="C251">
+        <v>60</v>
+      </c>
+      <c r="D251" t="s">
+        <v>25</v>
+      </c>
+      <c r="E251" t="s">
+        <v>213</v>
+      </c>
+      <c r="G251" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>283</v>
+      </c>
+      <c r="B252" t="s">
+        <v>285</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
+      </c>
+      <c r="D252" t="s">
+        <v>14</v>
+      </c>
+      <c r="E252" t="s">
+        <v>213</v>
+      </c>
+      <c r="G252" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
+        <v>283</v>
+      </c>
+      <c r="B253" t="s">
+        <v>13</v>
+      </c>
+      <c r="C253">
+        <v>3</v>
+      </c>
+      <c r="D253" t="s">
+        <v>14</v>
+      </c>
+      <c r="E253" t="s">
+        <v>213</v>
+      </c>
+      <c r="G253" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>287</v>
+      </c>
+      <c r="B254" t="s">
+        <v>74</v>
+      </c>
+      <c r="C254">
+        <v>120</v>
+      </c>
+      <c r="D254" t="s">
+        <v>25</v>
+      </c>
+      <c r="E254" t="s">
+        <v>194</v>
+      </c>
+      <c r="G254" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
+        <v>287</v>
+      </c>
+      <c r="B255" t="s">
+        <v>288</v>
+      </c>
+      <c r="C255">
+        <v>6</v>
+      </c>
+      <c r="D255" t="s">
+        <v>25</v>
+      </c>
+      <c r="E255" t="s">
+        <v>194</v>
+      </c>
+      <c r="G255" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
+        <v>287</v>
+      </c>
+      <c r="B256" t="s">
+        <v>57</v>
+      </c>
+      <c r="C256">
+        <v>50</v>
+      </c>
+      <c r="D256" t="s">
+        <v>25</v>
+      </c>
+      <c r="E256" t="s">
+        <v>194</v>
+      </c>
+      <c r="G256" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>287</v>
+      </c>
+      <c r="B257" t="s">
+        <v>32</v>
+      </c>
+      <c r="C257">
+        <v>1</v>
+      </c>
+      <c r="D257" t="s">
+        <v>14</v>
+      </c>
+      <c r="E257" t="s">
+        <v>194</v>
+      </c>
+      <c r="G257" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>287</v>
+      </c>
+      <c r="B258" t="s">
+        <v>38</v>
+      </c>
+      <c r="C258">
+        <v>300</v>
+      </c>
+      <c r="D258" t="s">
+        <v>25</v>
+      </c>
+      <c r="E258" t="s">
+        <v>194</v>
+      </c>
+      <c r="G258" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
+        <v>287</v>
+      </c>
+      <c r="B259" t="s">
+        <v>31</v>
+      </c>
+      <c r="C259">
+        <v>40</v>
+      </c>
+      <c r="D259" t="s">
+        <v>25</v>
+      </c>
+      <c r="E259" t="s">
+        <v>194</v>
+      </c>
+      <c r="G259" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
+        <v>287</v>
+      </c>
+      <c r="B260" t="s">
+        <v>115</v>
+      </c>
+      <c r="C260">
+        <v>1</v>
+      </c>
+      <c r="D260" t="s">
+        <v>60</v>
+      </c>
+      <c r="E260" t="s">
+        <v>194</v>
+      </c>
+      <c r="G260" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
+        <v>287</v>
+      </c>
+      <c r="B261" t="s">
+        <v>41</v>
+      </c>
+      <c r="C261">
+        <v>1</v>
+      </c>
+      <c r="D261" t="s">
+        <v>8</v>
+      </c>
+      <c r="E261" t="s">
+        <v>194</v>
+      </c>
+      <c r="G261" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
+        <v>290</v>
+      </c>
+      <c r="B262" t="s">
+        <v>32</v>
+      </c>
+      <c r="C262">
+        <v>5</v>
+      </c>
+      <c r="D262" t="s">
+        <v>14</v>
+      </c>
+      <c r="E262" t="s">
+        <v>213</v>
+      </c>
+      <c r="G262" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
+        <v>290</v>
+      </c>
+      <c r="B263" t="s">
+        <v>15</v>
+      </c>
+      <c r="C263">
+        <v>2</v>
+      </c>
+      <c r="D263" t="s">
+        <v>8</v>
+      </c>
+      <c r="E263" t="s">
+        <v>213</v>
+      </c>
+      <c r="G263" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
+        <v>290</v>
+      </c>
+      <c r="B264" t="s">
+        <v>57</v>
+      </c>
+      <c r="C264">
+        <v>1</v>
+      </c>
+      <c r="D264" t="s">
+        <v>8</v>
+      </c>
+      <c r="E264" t="s">
+        <v>213</v>
+      </c>
+      <c r="G264" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
+        <v>290</v>
+      </c>
+      <c r="B265" t="s">
+        <v>48</v>
+      </c>
+      <c r="C265">
+        <v>0.5</v>
+      </c>
+      <c r="D265" t="s">
+        <v>8</v>
+      </c>
+      <c r="E265" t="s">
+        <v>213</v>
+      </c>
+      <c r="G265" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
+        <v>290</v>
+      </c>
+      <c r="B266" t="s">
+        <v>13</v>
+      </c>
+      <c r="C266">
+        <v>2</v>
+      </c>
+      <c r="D266" t="s">
+        <v>14</v>
+      </c>
+      <c r="E266" t="s">
+        <v>213</v>
+      </c>
+      <c r="G266" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
+        <v>290</v>
+      </c>
+      <c r="B267" t="s">
+        <v>17</v>
+      </c>
+      <c r="C267">
+        <v>1</v>
+      </c>
+      <c r="D267" t="s">
+        <v>60</v>
+      </c>
+      <c r="E267" t="s">
+        <v>213</v>
+      </c>
+      <c r="G267" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -6058,15 +6761,14 @@
     <hyperlink ref="G98" r:id="rId4" xr:uid="{8738B12D-EE54-45AF-B868-00D6E7879641}"/>
     <hyperlink ref="G99:G116" r:id="rId5" display="https://www.recipetineats.com/wprm_print/36097" xr:uid="{E51C05CC-D379-4458-B1AA-8DC7AC2235BB}"/>
     <hyperlink ref="G117" r:id="rId6" xr:uid="{43715D84-1868-4A16-B4F9-9796D9BE3BC6}"/>
-    <hyperlink ref="G127" r:id="rId7" xr:uid="{67FA031A-421A-4305-B5B4-520CF24DF9BE}"/>
-    <hyperlink ref="G133" r:id="rId8" xr:uid="{406EFBE6-7646-4906-95E4-A28F579ADF2A}"/>
-    <hyperlink ref="G152" r:id="rId9" location="wprm-recipe-container-59406" xr:uid="{337BACCF-5448-4396-9E15-01795B3AEFD5}"/>
-    <hyperlink ref="G153:G160" r:id="rId10" location="wprm-recipe-container-59406" display="https://www.justonecookbook.com/buttermilk-pancakes/#wprm-recipe-container-59406" xr:uid="{25BDE316-CDC3-4680-A332-BF6EFE5C5231}"/>
-    <hyperlink ref="G182" r:id="rId11" xr:uid="{DC793941-06F6-4FDD-B446-EF46EE9D13DC}"/>
-    <hyperlink ref="G183:G197" r:id="rId12" display="https://www.justonecookbook.com/sesame-miso-hot-pot/" xr:uid="{E3FC1864-4012-4ACF-8CDB-322A8814B617}"/>
+    <hyperlink ref="G127" r:id="rId7" xr:uid="{406EFBE6-7646-4906-95E4-A28F579ADF2A}"/>
+    <hyperlink ref="G146" r:id="rId8" location="wprm-recipe-container-59406" xr:uid="{337BACCF-5448-4396-9E15-01795B3AEFD5}"/>
+    <hyperlink ref="G147:G154" r:id="rId9" location="wprm-recipe-container-59406" display="https://www.justonecookbook.com/buttermilk-pancakes/#wprm-recipe-container-59406" xr:uid="{25BDE316-CDC3-4680-A332-BF6EFE5C5231}"/>
+    <hyperlink ref="G176" r:id="rId10" xr:uid="{DC793941-06F6-4FDD-B446-EF46EE9D13DC}"/>
+    <hyperlink ref="G177:G191" r:id="rId11" display="https://www.justonecookbook.com/sesame-miso-hot-pot/" xr:uid="{E3FC1864-4012-4ACF-8CDB-322A8814B617}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
@@ -6078,7 +6780,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6D896857-00B3-4614-A0CD-62CBC4310322}">
           <x14:formula1>
-            <xm:f>'Ingredient List'!$C$2:$C$5</xm:f>
+            <xm:f>'Ingredient List'!$C$2:$C$9</xm:f>
           </x14:formula1>
           <xm:sqref>D1:D1048576</xm:sqref>
         </x14:dataValidation>
@@ -6096,11 +6798,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{311BBB4D-CC89-4B49-BBF9-8F43F47651E3}">
-  <dimension ref="A1:D159"/>
+  <dimension ref="A1:D165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A160" sqref="A160"/>
+      <pane ySplit="11" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A166" sqref="A166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6124,7 +6826,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>161</v>
       </c>
       <c r="B2" t="s">
@@ -6138,7 +6840,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
+      <c r="A3" s="6"/>
       <c r="B3" t="s">
         <v>16</v>
       </c>
@@ -6150,7 +6852,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
+      <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>147</v>
       </c>
@@ -6162,7 +6864,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
+      <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>22</v>
       </c>
@@ -6174,19 +6876,19 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
+      <c r="A6" s="6"/>
       <c r="B6" t="s">
         <v>148</v>
       </c>
       <c r="C6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D6" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
+      <c r="A7" s="6"/>
       <c r="B7" t="s">
         <v>43</v>
       </c>
@@ -6195,13 +6897,13 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
+      <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
+      <c r="A9" s="6"/>
       <c r="B9" t="s">
         <v>87</v>
       </c>
@@ -6737,7 +7439,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B59" t="s">
         <v>22</v>
@@ -6748,7 +7450,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B60" t="s">
         <v>22</v>
@@ -7155,7 +7857,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B97" t="s">
         <v>22</v>
@@ -7441,7 +8143,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B123" t="s">
         <v>22</v>
@@ -7551,7 +8253,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B133" t="s">
         <v>22</v>
@@ -7683,7 +8385,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B145" t="s">
         <v>12</v>
@@ -7694,7 +8396,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B146" t="s">
         <v>22</v>
@@ -7705,7 +8407,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B147" t="s">
         <v>146</v>
@@ -7716,7 +8418,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B148" t="s">
         <v>16</v>
@@ -7727,7 +8429,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B149" t="s">
         <v>22</v>
@@ -7738,7 +8440,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B150" t="s">
         <v>146</v>
@@ -7749,7 +8451,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B151" t="s">
         <v>16</v>
@@ -7760,7 +8462,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B152" t="s">
         <v>12</v>
@@ -7771,7 +8473,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B153" t="s">
         <v>12</v>
@@ -7782,7 +8484,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B154" t="s">
         <v>12</v>
@@ -7793,7 +8495,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B155" t="s">
         <v>16</v>
@@ -7804,7 +8506,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B156" t="s">
         <v>12</v>
@@ -7815,7 +8517,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B157" t="s">
         <v>16</v>
@@ -7826,7 +8528,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B158" t="s">
         <v>16</v>
@@ -7837,12 +8539,78 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B159" t="s">
         <v>12</v>
       </c>
       <c r="C159" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>275</v>
+      </c>
+      <c r="B160" t="s">
+        <v>22</v>
+      </c>
+      <c r="C160" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>281</v>
+      </c>
+      <c r="B161" t="s">
+        <v>22</v>
+      </c>
+      <c r="C161" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>236</v>
+      </c>
+      <c r="B162" t="s">
+        <v>12</v>
+      </c>
+      <c r="C162" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>284</v>
+      </c>
+      <c r="B163" t="s">
+        <v>12</v>
+      </c>
+      <c r="C163" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>285</v>
+      </c>
+      <c r="B164" t="s">
+        <v>12</v>
+      </c>
+      <c r="C164" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>288</v>
+      </c>
+      <c r="B165" t="s">
+        <v>16</v>
+      </c>
+      <c r="C165" t="s">
         <v>25</v>
       </c>
     </row>
